--- a/quizzes/ls01_gg_intro/ls01_gg_intro_data_quiz/idar_ls01_gg_intro_data_quiz.xlsx
+++ b/quizzes/ls01_gg_intro/ls01_gg_intro_data_quiz/idar_ls01_gg_intro_data_quiz.xlsx
@@ -95,17 +95,18 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;script src="01_files/core-js-2.5.3/shim.min.js"&gt;&lt;/script&gt;
-&lt;script src="01_files/react-17.0.0/react.min.js"&gt;&lt;/script&gt;
-&lt;script src="01_files/react-17.0.0/react-dom.min.js"&gt;&lt;/script&gt;
-&lt;script src="01_files/reactwidget-1.0.0/react-tools.js"&gt;&lt;/script&gt;
-&lt;script src="01_files/htmlwidgets-1.5.4/htmlwidgets.js"&gt;&lt;/script&gt;
-&lt;script src="01_files/reactable-binding-0.3.0/reactable.js"&gt;&lt;/script&gt;
+    <t xml:space="preserve">
 &lt;p&gt;Welcome to your first data-based quiz on data visualization! For data-based quizzes, you will need to import data into R as you follow the questions.&lt;/p&gt;
 &lt;p&gt;Note that each time you retry a quiz, the dataset is slightly modified.&lt;/p&gt;
 &lt;div id="hiv-dataset" class="section level1"&gt;
 &lt;h1&gt;HIV dataset&lt;/h1&gt;
 &lt;p&gt;Here, you will analyze parts of a dataset documenting global HIV prevalence from 1990 to 2011.&lt;/p&gt;
+&lt;p&gt;Click &lt;a href="https://drive.google.com/file/d/1DjcpRAWXaWZECRpUZIKYR01c7wh7EBlG/view?usp=drivesdk" target="_blank"&gt;&lt;strong&gt;here&lt;/strong&gt;&lt;/a&gt; to view and download the data. Or import it directly into R with the code below:&lt;/p&gt;
+&lt;pre&gt;&lt;code&gt;if(!require(pacman)) install.packages(&amp;quot;pacman&amp;quot;)   
+pacman::p_load(rio)   
+hiv_prevalence &amp;lt;- import(&amp;quot;https://docs.google.com/uc?id=1DjcpRAWXaWZECRpUZIKYR01c7wh7EBlG&amp;amp;export=download&amp;quot;,
+ format = &amp;quot;csv&amp;quot;,
+ setclass = &amp;quot;tibble&amp;quot;)  &lt;/code&gt;&lt;/pre&gt;
 &lt;p&gt;Here are the top 6 rows of &lt;code&gt;hiv_prevalence&lt;/code&gt; after import:&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;head(hiv_prevalence)&lt;/code&gt;&lt;/pre&gt;
 &lt;pre&gt;&lt;code&gt;## # A tibble: 6 × 4
@@ -136,14 +137,14 @@
 ## &lt;/code&gt;&lt;/pre&gt;
 &lt;p&gt;&lt;strong&gt;Complete the code below to create a scatter plot of HIV incidence over time.&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;Hint: You plot should look like this:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1nAlPi0TqOg4ipQuYCdu0BTxzpP0AxGZm" width="480" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1SAZ98XmvjVMufT4pmBI-NQS36Ej0iL-L" width="480" /&gt;&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;ggplot(data = {hiv_prevalence}, 
        {mapping} = aes({x} = year,
                        y = {total_cases})) {+}
   geom{_point}()&lt;/code&gt;&lt;/pre&gt;
 &lt;hr /&gt;
 &lt;p&gt;Make this plot and save it as an R object:
-&lt;img src="https://drive.google.com/uc?export=view&amp;id=1Xx9syeZEeVlj-XO2n0768bfSFoNHpjm7" width="672" /&gt;&lt;/p&gt;
+&lt;img src="https://drive.google.com/uc?export=view&amp;id=1xc85TX30oiQBEmia9Evou-tG8b9NBbPh" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;Put your plot object through the &lt;code&gt;ggplot_digest()&lt;/code&gt; function and enter the resulting character string here: {9fb1cf69b4fde79134ffb871ae01bf56}&lt;/p&gt;
 &lt;/div&gt;</t>
   </si>
@@ -160,6 +161,12 @@
 &lt;div id="hiv-dataset" class="section level1"&gt;
 &lt;h1&gt;HIV dataset&lt;/h1&gt;
 &lt;p&gt;Here, you will analyze parts of a dataset documenting global HIV prevalence from 1990 to 2011.&lt;/p&gt;
+&lt;p&gt;Click &lt;a href="https://drive.google.com/file/d/10UHloNs7wu1ES2aTJHsiC-iOBP615vUu/view?usp=drivesdk" target="_blank"&gt;&lt;strong&gt;here&lt;/strong&gt;&lt;/a&gt; to view and download the data. Or import it directly into R with the code below:&lt;/p&gt;
+&lt;pre&gt;&lt;code&gt;if(!require(pacman)) install.packages(&amp;quot;pacman&amp;quot;)   
+pacman::p_load(rio)   
+hiv_prevalence &amp;lt;- import(&amp;quot;https://docs.google.com/uc?id=10UHloNs7wu1ES2aTJHsiC-iOBP615vUu&amp;amp;export=download&amp;quot;,
+ format = &amp;quot;csv&amp;quot;,
+ setclass = &amp;quot;tibble&amp;quot;)  &lt;/code&gt;&lt;/pre&gt;
 &lt;p&gt;Here are the top 6 rows of &lt;code&gt;hiv_prevalence&lt;/code&gt; after import:&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;head(hiv_prevalence)&lt;/code&gt;&lt;/pre&gt;
 &lt;pre&gt;&lt;code&gt;## # A tibble: 6 × 4
@@ -190,14 +197,14 @@
 ## &lt;/code&gt;&lt;/pre&gt;
 &lt;p&gt;&lt;strong&gt;Complete the code below to create a scatter plot of HIV incidence over time.&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;Hint: You plot should look like this:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=11adH9hO1tG9Jy1_1F5qVTh8IqwpzMtlN" width="480" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1MJIjGZcM15tJv51ogPh3MlbYxFnpmKip" width="480" /&gt;&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;ggplot(data = {hiv_prevalence}, 
        {mapping} = aes({x} = year,
                        y = {total_cases})) {+}
   geom{_point}()&lt;/code&gt;&lt;/pre&gt;
 &lt;hr /&gt;
 &lt;p&gt;Make this plot and save it as an R object:
-&lt;img src="https://drive.google.com/uc?export=view&amp;id=1B96qCSocOaPmx7h_hvtJ8pHfQ9Xv5s7X" width="672" /&gt;&lt;/p&gt;
+&lt;img src="https://drive.google.com/uc?export=view&amp;id=1JsmOeM4rAwHylXTniph0axZOmjUHFr9y" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;Put your plot object through the &lt;code&gt;ggplot_digest()&lt;/code&gt; function and enter the resulting character string here: {865fce3a2bd569ad8ee8629e845e9b1e}&lt;/p&gt;
 &lt;/div&gt;</t>
   </si>
@@ -211,6 +218,12 @@
 &lt;div id="hiv-dataset" class="section level1"&gt;
 &lt;h1&gt;HIV dataset&lt;/h1&gt;
 &lt;p&gt;Here, you will analyze parts of a dataset documenting global HIV prevalence from 1990 to 2011.&lt;/p&gt;
+&lt;p&gt;Click &lt;a href="https://drive.google.com/file/d/1rIYcr4AuMCUmcQk8ED07tWhHx_WG0uNx/view?usp=drivesdk" target="_blank"&gt;&lt;strong&gt;here&lt;/strong&gt;&lt;/a&gt; to view and download the data. Or import it directly into R with the code below:&lt;/p&gt;
+&lt;pre&gt;&lt;code&gt;if(!require(pacman)) install.packages(&amp;quot;pacman&amp;quot;)   
+pacman::p_load(rio)   
+hiv_prevalence &amp;lt;- import(&amp;quot;https://docs.google.com/uc?id=1rIYcr4AuMCUmcQk8ED07tWhHx_WG0uNx&amp;amp;export=download&amp;quot;,
+ format = &amp;quot;csv&amp;quot;,
+ setclass = &amp;quot;tibble&amp;quot;)  &lt;/code&gt;&lt;/pre&gt;
 &lt;p&gt;Here are the top 6 rows of &lt;code&gt;hiv_prevalence&lt;/code&gt; after import:&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;head(hiv_prevalence)&lt;/code&gt;&lt;/pre&gt;
 &lt;pre&gt;&lt;code&gt;## # A tibble: 6 × 4
@@ -241,14 +254,14 @@
 ## &lt;/code&gt;&lt;/pre&gt;
 &lt;p&gt;&lt;strong&gt;Complete the code below to create a scatter plot of HIV incidence over time.&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;Hint: You plot should look like this:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1czB7OmfMGN5_ogKwUejzpdAaJJhWXjmd" width="480" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1WPJkQBDW6jGnSTS3zRw3GGfNvEeDaLEr" width="480" /&gt;&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;ggplot(data = {hiv_prevalence}, 
        {mapping} = aes({x} = year,
                        y = {total_cases})) {+}
   geom{_point}()&lt;/code&gt;&lt;/pre&gt;
 &lt;hr /&gt;
 &lt;p&gt;Make this plot and save it as an R object:
-&lt;img src="https://drive.google.com/uc?export=view&amp;id=1kwAsOMWjkPR0PaipYgHBBBl5bS6Vv_dd" width="672" /&gt;&lt;/p&gt;
+&lt;img src="https://drive.google.com/uc?export=view&amp;id=1hQNxU4hIFrNjhwk2DfKbsz7hpW6llXPZ" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;Put your plot object through the &lt;code&gt;ggplot_digest()&lt;/code&gt; function and enter the resulting character string here: {3b276234cebfd6a5d17fde35457e039b}&lt;/p&gt;
 &lt;/div&gt;</t>
   </si>

--- a/quizzes/ls01_gg_intro/ls01_gg_intro_data_quiz/idar_ls01_gg_intro_data_quiz.xlsx
+++ b/quizzes/ls01_gg_intro/ls01_gg_intro_data_quiz/idar_ls01_gg_intro_data_quiz.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">Quiz title</t>
   </si>
@@ -97,55 +97,148 @@
   <si>
     <t xml:space="preserve">
 &lt;p&gt;Welcome to your first data-based quiz on data visualization! For data-based quizzes, you will need to import data into R as you follow the questions.&lt;/p&gt;
-&lt;p&gt;Note that each time you retry a quiz, the dataset is slightly modified.&lt;/p&gt;
+&lt;p&gt;Click &lt;a href="https://drive.google.com/file/d/1L5_lJXd22f8nA0SdUBh0U3XxcnBVrAmb/view?usp=drivesdk" target="_blank"&gt;&lt;strong&gt;here&lt;/strong&gt;&lt;/a&gt; to view and download the data. Or import it directly into R with the code below:&lt;/p&gt;
+&lt;pre&gt;&lt;code&gt;if(!require(pacman)) install.packages(&amp;quot;pacman&amp;quot;)   
+pacman::p_load(rio)   
+hiv_prevalence &amp;lt;- import(&amp;quot;https://docs.google.com/uc?id=1L5_lJXd22f8nA0SdUBh0U3XxcnBVrAmb&amp;amp;export=download&amp;quot;,
+ format = &amp;quot;csv&amp;quot;,
+ setclass = &amp;quot;tibble&amp;quot;)  &lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;Note that each time you retry a quiz, the dataset is slightly modified so that you get a different set of countries.&lt;/p&gt;
+&lt;p&gt;Some questions require you to create and submit a plots. You will need to be able run code in R in order to complete this quiz.&lt;/p&gt;
+&lt;p&gt;In order to submit as plots as answers in this quiz, you will need a function called &lt;strong&gt;&lt;code&gt;get_plot_key()&lt;/code&gt;&lt;/strong&gt;. This function will “digest” your plot and give it a unique alphanumeric &lt;strong&gt;key&lt;/strong&gt;, so you don’t need to save and submit every plot for grading.&lt;/p&gt;
+&lt;p&gt;We will now walk you through a reproducible example of how to use &lt;code&gt;get_plot_key()&lt;/code&gt; to create an answer for this quiz.&lt;/p&gt;
+&lt;p&gt;First, run this code to add &lt;code&gt;get_plot_key()&lt;/code&gt; as a function in your R environment.&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;# Import function
+# devtools::source_gist(&amp;quot;INSERT LINK&amp;quot;)&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;A quiz question might ask you to do the following:&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Use the &lt;code&gt;iris&lt;/code&gt;&lt;/strong&gt; &lt;strong&gt;dataset in R to create a scatter plot of &lt;code&gt;Sepal.Width&lt;/code&gt; against &lt;code&gt;Sepal.Length&lt;/code&gt;. Color the points by &lt;code&gt;Species&lt;/code&gt;&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;First, write your solution to the quest using &lt;code&gt;ggplot()&lt;/code&gt; in R.&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;# Create plot to answer the question
+ggplot(data = iris,
+       mapping = aes(x = Sepal.Width,
+                     y = Sepal.Length,
+                     color = Species)) +
+  geom_point()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1XqPzNNIrjC6-R3igw7PPK9VSegIx4QUQ" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;Once you are sure you have your final answer, save your plot as an R object.&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;# Store plot as an R object
+plot_name &amp;lt;- 
+  ggplot(data = iris,
+       mapping = aes(x = Sepal.Width,
+                     y = Sepal.Length,
+                     color = Species)) +
+  geom_point()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;Next, put your plot object in the &lt;strong&gt;&lt;code&gt;get_plot_key()&lt;/code&gt;&lt;/strong&gt; function. This will produce the unique key.&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;# Run function on plot object
+get_plot_key(plot_name)&lt;/code&gt;&lt;/pre&gt;
+&lt;pre&gt;&lt;code&gt;## [1] &amp;quot;682e8ac53451801795f12306c23e23b7&amp;quot;&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;The unique alphanumeric key for this plot is 1c1df9d84a66e103b59e2b8e0ed1c386. Your key will look different, but it should also be 32 characters long and contain letters and numbers.&lt;/p&gt;
+&lt;p&gt;Finally, you will need to submit your answer by copying the key string and pasting into the corresponding answer box in this quiz.&lt;/p&gt;
+&lt;p&gt;The answer box will look like this:&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Enter the unique key for your plot here&lt;/strong&gt;: {682e8ac53451801795f12306c23e23b7}&lt;/p&gt;
+&lt;p&gt;Try entering the key from the last plot.&lt;/p&gt;
+&lt;p&gt;We will use the keys to check your answers, so please ensure you have copied and pasted the whole key string correctly.&lt;/p&gt;
 &lt;div id="hiv-dataset" class="section level1"&gt;
 &lt;h1&gt;HIV dataset&lt;/h1&gt;
 &lt;p&gt;Here, you will analyze parts of a dataset documenting global HIV prevalence from 1990 to 2011.&lt;/p&gt;
-&lt;p&gt;Click &lt;a href="https://drive.google.com/file/d/1DjcpRAWXaWZECRpUZIKYR01c7wh7EBlG/view?usp=drivesdk" target="_blank"&gt;&lt;strong&gt;here&lt;/strong&gt;&lt;/a&gt; to view and download the data. Or import it directly into R with the code below:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;if(!require(pacman)) install.packages(&amp;quot;pacman&amp;quot;)   
-pacman::p_load(rio)   
-hiv_prevalence &amp;lt;- import(&amp;quot;https://docs.google.com/uc?id=1DjcpRAWXaWZECRpUZIKYR01c7wh7EBlG&amp;amp;export=download&amp;quot;,
- format = &amp;quot;csv&amp;quot;,
- setclass = &amp;quot;tibble&amp;quot;)  &lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Here are the top 6 rows of &lt;code&gt;hiv_prevalence&lt;/code&gt; after import:&lt;/p&gt;
+&lt;p&gt;Here are the top 6 rows of &lt;strong&gt;&lt;code&gt;hiv_prevalence&lt;/code&gt;&lt;/strong&gt; after import:&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;head(hiv_prevalence)&lt;/code&gt;&lt;/pre&gt;
 &lt;pre&gt;&lt;code&gt;## # A tibble: 6 × 4
-##   country year  total_cases population
-##   &amp;lt;fct&amp;gt;   &amp;lt;fct&amp;gt;       &amp;lt;dbl&amp;gt;      &amp;lt;dbl&amp;gt;
-## 1 Brazil  1995       350000  161890816
-## 2 Brazil  1996       370000  164392423
-## 3 Brazil  1997       390000  166925457
-## 4 Brazil  1998       410000  169472347
-## 5 Brazil  1999       430000  172006362
-## 6 Brazil  2000       440000  174504898&lt;/code&gt;&lt;/pre&gt;
+##   country  year total_cases population
+##   &amp;lt;fct&amp;gt;   &amp;lt;dbl&amp;gt;       &amp;lt;dbl&amp;gt;      &amp;lt;dbl&amp;gt;
+## 1 Brazil   1995      350000  161890816
+## 2 Brazil   1996      370000  164392423
+## 3 Brazil   1997      390000  166925457
+## 4 Brazil   1998      410000  169472347
+## 5 Brazil   1999      430000  172006362
+## 6 Brazil   2000      440000  174504898&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;There are four variables: 1. &lt;strong&gt;&lt;code&gt;country&lt;/code&gt;&lt;/strong&gt; : Country name 2. &lt;strong&gt;&lt;code&gt;year&lt;/code&gt;&lt;/strong&gt; : Calendar year 3. &lt;strong&gt;&lt;code&gt;total_cases&lt;/code&gt;&lt;/strong&gt;: Number of people estimated to be infected by HIV. 4. &lt;strong&gt;&lt;code&gt;population&lt;/code&gt;&lt;/strong&gt;: Total population&lt;/p&gt;
+&lt;p&gt;Take a closer look at the composition of each variable:&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;summary(hiv_prevalence)&lt;/code&gt;&lt;/pre&gt;
-&lt;pre&gt;&lt;code&gt;##      country        year     total_cases     
-##  Brazil  :15   1995   : 3   Min.   : 230000  
-##  Cameroon:15   1996   : 3   1st Qu.: 440000  
-##  India   :15   1997   : 3   Median : 490000  
-##                1998   : 3   Mean   :1053111  
-##                1999   : 3   3rd Qu.:2000000  
-##                2000   : 3   Max.   :2600000  
-##                (Other):27                    
+&lt;pre&gt;&lt;code&gt;##      country        year       total_cases     
+##  Brazil  :15   Min.   :1995   Min.   : 230000  
+##  Cameroon:15   1st Qu.:1998   1st Qu.: 440000  
+##  India   :15   Median :2002   Median : 490000  
+##                Mean   :2002   Mean   :1053111  
+##                3rd Qu.:2006   3rd Qu.:2000000  
+##                Max.   :2009   Max.   :2600000  
 ##    population       
 ##  Min.   :1.393e+07  
 ##  1st Qu.:1.861e+07  
 ##  Median :1.794e+08  
 ##  Mean   :4.236e+08  
 ##  3rd Qu.:1.008e+09  
-##  Max.   :1.190e+09  
-## &lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;strong&gt;Complete the code below to create a scatter plot of HIV incidence over time.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Hint: You plot should look like this:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1SAZ98XmvjVMufT4pmBI-NQS36Ej0iL-L" width="480" /&gt;&lt;/p&gt;
+##  Max.   :1.190e+09&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;This version of the dataset contains records of HIV case count and population for &lt;strong&gt;3 countries&lt;/strong&gt; over &lt;strong&gt;15 years&lt;/strong&gt; (1995 to 2009).&lt;/p&gt;
+&lt;p&gt;In this quiz you will create plots to look at how the number of total HIV cases in these countries changes over this time period.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Complete the code below to create a simple scatter plot of HIV incidence over time using &lt;code&gt;ggplot()&lt;/code&gt;.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;The resulting plot should look like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1QzOQ8vur828rV6JfTjO52yPF6YK59DeB" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;Hint: note which variables are mapped to which axis, and refer to the &lt;code&gt;ggplot()&lt;/code&gt; syntax template to structure your code.&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1MO5V5gsljPxh2zT207Py6PIwjv-sRI1_" width="943" /&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+       mapping = aes(x = {year},
+                       y = {total_cases})) +
+  geom_point()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;This scatter plot doesn’t allow us to distinguish between the 3 countries in the dataset.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Add an aesthetic argument that will color each point according to country.&lt;/strong&gt;&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;ggplot(data = {hiv_prevalence}, 
-       {mapping} = aes({x} = year,
-                       y = {total_cases})) {+}
-  geom{_point}()&lt;/code&gt;&lt;/pre&gt;
-&lt;hr /&gt;
-&lt;p&gt;Make this plot and save it as an R object:
-&lt;img src="https://drive.google.com/uc?export=view&amp;id=1xc85TX30oiQBEmia9Evou-tG8b9NBbPh" width="672" /&gt;&lt;/p&gt;
-&lt;p&gt;Put your plot object through the &lt;code&gt;ggplot_digest()&lt;/code&gt; function and enter the resulting character string here: {9fb1cf69b4fde79134ffb871ae01bf56}&lt;/p&gt;
+       {mapping} = aes(x = year,
+                       y = total_cases,
+                       {[color=country][colour=country][col=country]|2})) +
+  geom_point()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;The aesthetic argument we just added is a fixed aesthetic: {[false][f]} (&lt;strong&gt;&lt;code&gt;true&lt;/code&gt;&lt;/strong&gt; or &lt;strong&gt;&lt;code&gt;false&lt;/code&gt;&lt;/strong&gt;)&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Use the &lt;code&gt;high_prevalence&lt;/code&gt;&lt;/strong&gt; &lt;strong&gt;dataset in R to create a stacked bar plot of total cases per year.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Hint: you will need to use the &lt;strong&gt;&lt;code&gt;geom_col()&lt;/code&gt;&lt;/strong&gt; function.&lt;/p&gt;
+&lt;p&gt;The plot should look like this&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1Hv0lnzHu5g0pCKpZLnMZnlBSnq4Ez6AX" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;Process your plot with &lt;code&gt;get_plot_key()&lt;/code&gt; and copy the resulting alphanumeric string.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Enter the unique key for your plot here&lt;/strong&gt;: {4c576cb06d0eced3d62ddc22f15fcf9c |5}&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Complete the below code to create a colored line graph&lt;/strong&gt; &lt;strong&gt;showing a separate line for each country.&lt;/strong&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+             mapping = aes(x = year, 
+                           y = total_cases,
+                           {[color][col][colour]} = country)) {+} 
+      {geom_line()}&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;The plot that should be created from the code above will look like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=10S8Ch3X7tC1ijPwBL8WLXZiF2cmOiG1r" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;Let’s say I want the lines in the plot to be a little thicker.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Name an aesthetic argument you can use to change the width of lines in a line graph&lt;/strong&gt;. {[size][lwd][linewidth]}&lt;/p&gt;
+&lt;p&gt;I wrote the following code to change the width of all lines in this plot to 1 mm:&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+             mapping = aes(x = year, 
+                           y = total_cases,
+                           color = country,
+                           size = 1)) + 
+      geom_line()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1oLiwvARnt2u6W2h0fC_ihSeBjZy7ufvH" width="480" /&gt;&lt;/p&gt;
+&lt;p&gt;Uh oh! That doesn’t look right. Can you find and fix the mistake in my code?&lt;/p&gt;
+&lt;p&gt;Hint: Aesthetic arguments like &lt;code&gt;x&lt;/code&gt;, &lt;code&gt;y&lt;/code&gt;, &lt;code&gt;color&lt;/code&gt;, &lt;code&gt;fill&lt;/code&gt;, and &lt;code&gt;size&lt;/code&gt; can either be a mapping of a variable or a fixed value. This depends on whether they are written inside &lt;code&gt;mapping = aes()&lt;/code&gt; or inside a &lt;code&gt;geom_*()&lt;/code&gt; function.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Use the &lt;code&gt;hiv_prevalence&lt;/code&gt; dataframe in R to create the line graph of population vs. year where the width of all lines is 1 mm.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;The plot should look like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1lfcJMJQ6ZlszDAhsgfpWLs7VgTzOBJOM" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Enter the unique key for your plot here&lt;/strong&gt;: {efdfc926867db6dd5526899f9561c9d4 |5}&lt;/p&gt;
+&lt;p&gt;Here are two plots showing the distribution of &lt;code&gt;total_cases&lt;/code&gt; for each country.&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1FsIVz2JAynTJaDHTnbF17cXo7i6ghozh" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Identify which plot is using the &lt;code&gt;color&lt;/code&gt; aesthetic for the &lt;code&gt;country&lt;/code&gt; variable.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Answer with &lt;code&gt;A&lt;/code&gt; or &lt;code&gt;B&lt;/code&gt;: Plot {B}&lt;/p&gt;
+&lt;p&gt;Now let’s create a bar plot where the outline color and fill color are different. For example, the bars in this bar plot of cases per year have colorful segments and a black outline:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1jcCO0n7VW9QsJwUIxK5xBlwIYN7UkCQE" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Complete the code below to generate this plot.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Hint: The R color used to color points in this plot is “black”.&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+       mapping = aes(x = year,
+                     y = total_cases,
+                     {fill} = {country})) +
+  geom_point({[color][col][colour]} = {[&amp;quot;black&amp;quot;][&amp;quot;#000000&amp;quot;]})&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;Here are two plots showing the change in population over time for each country:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1cZJy1bS217EZSSKjc7ftmVbJTtu2ISU3" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Complete the code below to create Plot B&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Note: The R color used to color points in Plot B is called “orchid1”.&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+             mapping = aes(x = year, 
+                           {[y = population][population]|2})) {+} 
+      {geom_line({[color = point_color][colour = point_color][col = point_color]|2})}&lt;/code&gt;&lt;/pre&gt;
 &lt;/div&gt;</t>
   </si>
   <si>
@@ -157,112 +250,148 @@
   <si>
     <t xml:space="preserve">
 &lt;p&gt;Welcome to your first data-based quiz on data visualization! For data-based quizzes, you will need to import data into R as you follow the questions.&lt;/p&gt;
-&lt;p&gt;Note that each time you retry a quiz, the dataset is slightly modified.&lt;/p&gt;
+&lt;p&gt;Click &lt;a href="https://drive.google.com/file/d/1NH9JLYivN5ahuonyV7c0GPaAAmdntUzK/view?usp=drivesdk" target="_blank"&gt;&lt;strong&gt;here&lt;/strong&gt;&lt;/a&gt; to view and download the data. Or import it directly into R with the code below:&lt;/p&gt;
+&lt;pre&gt;&lt;code&gt;if(!require(pacman)) install.packages(&amp;quot;pacman&amp;quot;)   
+pacman::p_load(rio)   
+hiv_prevalence &amp;lt;- import(&amp;quot;https://docs.google.com/uc?id=1NH9JLYivN5ahuonyV7c0GPaAAmdntUzK&amp;amp;export=download&amp;quot;,
+ format = &amp;quot;csv&amp;quot;,
+ setclass = &amp;quot;tibble&amp;quot;)  &lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;Note that each time you retry a quiz, the dataset is slightly modified so that you get a different set of countries.&lt;/p&gt;
+&lt;p&gt;Some questions require you to create and submit a plots. You will need to be able run code in R in order to complete this quiz.&lt;/p&gt;
+&lt;p&gt;In order to submit as plots as answers in this quiz, you will need a function called &lt;strong&gt;&lt;code&gt;get_plot_key()&lt;/code&gt;&lt;/strong&gt;. This function will “digest” your plot and give it a unique alphanumeric &lt;strong&gt;key&lt;/strong&gt;, so you don’t need to save and submit every plot for grading.&lt;/p&gt;
+&lt;p&gt;We will now walk you through a reproducible example of how to use &lt;code&gt;get_plot_key()&lt;/code&gt; to create an answer for this quiz.&lt;/p&gt;
+&lt;p&gt;First, run this code to add &lt;code&gt;get_plot_key()&lt;/code&gt; as a function in your R environment.&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;# Import function
+# devtools::source_gist(&amp;quot;INSERT LINK&amp;quot;)&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;A quiz question might ask you to do the following:&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Use the &lt;code&gt;iris&lt;/code&gt;&lt;/strong&gt; &lt;strong&gt;dataset in R to create a scatter plot of &lt;code&gt;Sepal.Width&lt;/code&gt; against &lt;code&gt;Sepal.Length&lt;/code&gt;. Color the points by &lt;code&gt;Species&lt;/code&gt;&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;First, write your solution to the quest using &lt;code&gt;ggplot()&lt;/code&gt; in R.&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;# Create plot to answer the question
+ggplot(data = iris,
+       mapping = aes(x = Sepal.Width,
+                     y = Sepal.Length,
+                     color = Species)) +
+  geom_point()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1i6wa3Xy1SPZDJhI_0-3AcJ0G2-KkCb7h" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;Once you are sure you have your final answer, save your plot as an R object.&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;# Store plot as an R object
+plot_name &amp;lt;- 
+  ggplot(data = iris,
+       mapping = aes(x = Sepal.Width,
+                     y = Sepal.Length,
+                     color = Species)) +
+  geom_point()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;Next, put your plot object in the &lt;strong&gt;&lt;code&gt;get_plot_key()&lt;/code&gt;&lt;/strong&gt; function. This will produce the unique key.&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;# Run function on plot object
+get_plot_key(plot_name)&lt;/code&gt;&lt;/pre&gt;
+&lt;pre&gt;&lt;code&gt;## [1] &amp;quot;682e8ac53451801795f12306c23e23b7&amp;quot;&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;The unique alphanumeric key for this plot is 1c1df9d84a66e103b59e2b8e0ed1c386. Your key will look different, but it should also be 32 characters long and contain letters and numbers.&lt;/p&gt;
+&lt;p&gt;Finally, you will need to submit your answer by copying the key string and pasting into the corresponding answer box in this quiz.&lt;/p&gt;
+&lt;p&gt;The answer box will look like this:&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Enter the unique key for your plot here&lt;/strong&gt;: {682e8ac53451801795f12306c23e23b7}&lt;/p&gt;
+&lt;p&gt;Try entering the key from the last plot.&lt;/p&gt;
+&lt;p&gt;We will use the keys to check your answers, so please ensure you have copied and pasted the whole key string correctly.&lt;/p&gt;
 &lt;div id="hiv-dataset" class="section level1"&gt;
 &lt;h1&gt;HIV dataset&lt;/h1&gt;
 &lt;p&gt;Here, you will analyze parts of a dataset documenting global HIV prevalence from 1990 to 2011.&lt;/p&gt;
-&lt;p&gt;Click &lt;a href="https://drive.google.com/file/d/10UHloNs7wu1ES2aTJHsiC-iOBP615vUu/view?usp=drivesdk" target="_blank"&gt;&lt;strong&gt;here&lt;/strong&gt;&lt;/a&gt; to view and download the data. Or import it directly into R with the code below:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;if(!require(pacman)) install.packages(&amp;quot;pacman&amp;quot;)   
-pacman::p_load(rio)   
-hiv_prevalence &amp;lt;- import(&amp;quot;https://docs.google.com/uc?id=10UHloNs7wu1ES2aTJHsiC-iOBP615vUu&amp;amp;export=download&amp;quot;,
- format = &amp;quot;csv&amp;quot;,
- setclass = &amp;quot;tibble&amp;quot;)  &lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Here are the top 6 rows of &lt;code&gt;hiv_prevalence&lt;/code&gt; after import:&lt;/p&gt;
+&lt;p&gt;Here are the top 6 rows of &lt;strong&gt;&lt;code&gt;hiv_prevalence&lt;/code&gt;&lt;/strong&gt; after import:&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;head(hiv_prevalence)&lt;/code&gt;&lt;/pre&gt;
 &lt;pre&gt;&lt;code&gt;## # A tibble: 6 × 4
-##   country year  total_cases population
-##   &amp;lt;fct&amp;gt;   &amp;lt;fct&amp;gt;       &amp;lt;dbl&amp;gt;      &amp;lt;dbl&amp;gt;
-## 1 Ghana   1995       170000   16760926
-## 2 Ghana   1996       190000   17169151
-## 3 Ghana   1997       200000   17568461
-## 4 Ghana   1998       220000   17968830
-## 5 Ghana   1999       230000   18384302
-## 6 Ghana   2000       240000   18825034&lt;/code&gt;&lt;/pre&gt;
+##   country  year total_cases population
+##   &amp;lt;fct&amp;gt;   &amp;lt;dbl&amp;gt;       &amp;lt;dbl&amp;gt;      &amp;lt;dbl&amp;gt;
+## 1 Ghana    1995      170000   16760926
+## 2 Ghana    1996      190000   17169151
+## 3 Ghana    1997      200000   17568461
+## 4 Ghana    1998      220000   17968830
+## 5 Ghana    1999      230000   18384302
+## 6 Ghana    2000      240000   18825034&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;There are four variables: 1. &lt;strong&gt;&lt;code&gt;country&lt;/code&gt;&lt;/strong&gt; : Country name 2. &lt;strong&gt;&lt;code&gt;year&lt;/code&gt;&lt;/strong&gt; : Calendar year 3. &lt;strong&gt;&lt;code&gt;total_cases&lt;/code&gt;&lt;/strong&gt;: Number of people estimated to be infected by HIV. 4. &lt;strong&gt;&lt;code&gt;population&lt;/code&gt;&lt;/strong&gt;: Total population&lt;/p&gt;
+&lt;p&gt;Take a closer look at the composition of each variable:&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;summary(hiv_prevalence)&lt;/code&gt;&lt;/pre&gt;
-&lt;pre&gt;&lt;code&gt;##      country        year     total_cases    
-##  Ghana   :15   1995   : 3   Min.   :170000  
-##  Thailand:15   1996   : 3   1st Qu.:250000  
-##  Zambia  :15   1997   : 3   Median :610000  
-##                1998   : 3   Mean   :570000  
-##                1999   : 3   3rd Qu.:790000  
-##                2000   : 3   Max.   :950000  
-##                (Other):27                   
+&lt;pre&gt;&lt;code&gt;##      country        year       total_cases    
+##  Ghana   :15   Min.   :1995   Min.   :170000  
+##  Thailand:15   1st Qu.:1998   1st Qu.:250000  
+##  Zambia  :15   Median :2002   Median :610000  
+##                Mean   :2002   Mean   :570000  
+##                3rd Qu.:2006   3rd Qu.:790000  
+##                Max.   :2009   Max.   :950000  
 ##    population      
 ##  Min.   : 8841338  
 ##  1st Qu.:11781612  
 ##  Median :19786307  
 ##  Mean   :31334510  
 ##  3rd Qu.:60903042  
-##  Max.   :66277335  
-## &lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;strong&gt;Complete the code below to create a scatter plot of HIV incidence over time.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Hint: You plot should look like this:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1MJIjGZcM15tJv51ogPh3MlbYxFnpmKip" width="480" /&gt;&lt;/p&gt;
+##  Max.   :66277335&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;This version of the dataset contains records of HIV case count and population for &lt;strong&gt;3 countries&lt;/strong&gt; over &lt;strong&gt;15 years&lt;/strong&gt; (1995 to 2009).&lt;/p&gt;
+&lt;p&gt;In this quiz you will create plots to look at how the number of total HIV cases in these countries changes over this time period.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Complete the code below to create a simple scatter plot of HIV incidence over time using &lt;code&gt;ggplot()&lt;/code&gt;.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;The resulting plot should look like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1UucsnR2nyoC8CHBnWZTarhnS6p9k1jmI" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;Hint: note which variables are mapped to which axis, and refer to the &lt;code&gt;ggplot()&lt;/code&gt; syntax template to structure your code.&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1aCisllnJUWvGlRztMSRyIapgjl1oyjX2" width="943" /&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+       mapping = aes(x = {year},
+                       y = {total_cases})) +
+  geom_point()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;This scatter plot doesn’t allow us to distinguish between the 3 countries in the dataset.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Add an aesthetic argument that will color each point according to country.&lt;/strong&gt;&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;ggplot(data = {hiv_prevalence}, 
-       {mapping} = aes({x} = year,
-                       y = {total_cases})) {+}
-  geom{_point}()&lt;/code&gt;&lt;/pre&gt;
-&lt;hr /&gt;
-&lt;p&gt;Make this plot and save it as an R object:
-&lt;img src="https://drive.google.com/uc?export=view&amp;id=1JsmOeM4rAwHylXTniph0axZOmjUHFr9y" width="672" /&gt;&lt;/p&gt;
-&lt;p&gt;Put your plot object through the &lt;code&gt;ggplot_digest()&lt;/code&gt; function and enter the resulting character string here: {865fce3a2bd569ad8ee8629e845e9b1e}&lt;/p&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ls01_gg_intro_data_quiz_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-&lt;p&gt;Welcome to your first data-based quiz on data visualization! For data-based quizzes, you will need to import data into R as you follow the questions.&lt;/p&gt;
-&lt;p&gt;Note that each time you retry a quiz, the dataset is slightly modified.&lt;/p&gt;
-&lt;div id="hiv-dataset" class="section level1"&gt;
-&lt;h1&gt;HIV dataset&lt;/h1&gt;
-&lt;p&gt;Here, you will analyze parts of a dataset documenting global HIV prevalence from 1990 to 2011.&lt;/p&gt;
-&lt;p&gt;Click &lt;a href="https://drive.google.com/file/d/1rIYcr4AuMCUmcQk8ED07tWhHx_WG0uNx/view?usp=drivesdk" target="_blank"&gt;&lt;strong&gt;here&lt;/strong&gt;&lt;/a&gt; to view and download the data. Or import it directly into R with the code below:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;if(!require(pacman)) install.packages(&amp;quot;pacman&amp;quot;)   
-pacman::p_load(rio)   
-hiv_prevalence &amp;lt;- import(&amp;quot;https://docs.google.com/uc?id=1rIYcr4AuMCUmcQk8ED07tWhHx_WG0uNx&amp;amp;export=download&amp;quot;,
- format = &amp;quot;csv&amp;quot;,
- setclass = &amp;quot;tibble&amp;quot;)  &lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Here are the top 6 rows of &lt;code&gt;hiv_prevalence&lt;/code&gt; after import:&lt;/p&gt;
-&lt;pre class="r"&gt;&lt;code&gt;head(hiv_prevalence)&lt;/code&gt;&lt;/pre&gt;
-&lt;pre&gt;&lt;code&gt;## # A tibble: 6 × 4
-##   country  year  total_cases population
-##   &amp;lt;fct&amp;gt;    &amp;lt;fct&amp;gt;       &amp;lt;dbl&amp;gt;      &amp;lt;dbl&amp;gt;
-## 1 Ethiopia 1995       910000   57023519
-## 2 Ethiopia 1996      1000000   58815116
-## 3 Ethiopia 1997      1100000   60584273
-## 4 Ethiopia 1998      1200000   62353942
-## 5 Ethiopia 1999      1200000   64158887
-## 6 Ethiopia 2000      1300000   66024199&lt;/code&gt;&lt;/pre&gt;
-&lt;pre class="r"&gt;&lt;code&gt;summary(hiv_prevalence)&lt;/code&gt;&lt;/pre&gt;
-&lt;pre&gt;&lt;code&gt;##      country        year     total_cases     
-##  Ethiopia:15   1995   : 3   Min.   : 610000  
-##  India   :15   1996   : 3   1st Qu.: 920000  
-##  Malawi  :15   1997   : 3   Median :1100000  
-##                1998   : 3   Mean   :1408889  
-##                1999   : 3   3rd Qu.:2000000  
-##                2000   : 3   Max.   :2600000  
-##                (Other):27                    
-##    population       
-##  Min.   :9.964e+06  
-##  1st Qu.:1.331e+07  
-##  Median :6.995e+07  
-##  Mean   :3.859e+08  
-##  3rd Qu.:1.008e+09  
-##  Max.   :1.190e+09  
-## &lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;strong&gt;Complete the code below to create a scatter plot of HIV incidence over time.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Hint: You plot should look like this:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1WPJkQBDW6jGnSTS3zRw3GGfNvEeDaLEr" width="480" /&gt;&lt;/p&gt;
-&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = {hiv_prevalence}, 
-       {mapping} = aes({x} = year,
-                       y = {total_cases})) {+}
-  geom{_point}()&lt;/code&gt;&lt;/pre&gt;
-&lt;hr /&gt;
-&lt;p&gt;Make this plot and save it as an R object:
-&lt;img src="https://drive.google.com/uc?export=view&amp;id=1hQNxU4hIFrNjhwk2DfKbsz7hpW6llXPZ" width="672" /&gt;&lt;/p&gt;
-&lt;p&gt;Put your plot object through the &lt;code&gt;ggplot_digest()&lt;/code&gt; function and enter the resulting character string here: {3b276234cebfd6a5d17fde35457e039b}&lt;/p&gt;
+       {mapping} = aes(x = year,
+                       y = total_cases,
+                       {[color=country][colour=country][col=country]|2})) +
+  geom_point()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;The aesthetic argument we just added is a fixed aesthetic: {[false][f]} (&lt;strong&gt;&lt;code&gt;true&lt;/code&gt;&lt;/strong&gt; or &lt;strong&gt;&lt;code&gt;false&lt;/code&gt;&lt;/strong&gt;)&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Use the &lt;code&gt;high_prevalence&lt;/code&gt;&lt;/strong&gt; &lt;strong&gt;dataset in R to create a stacked bar plot of total cases per year.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Hint: you will need to use the &lt;strong&gt;&lt;code&gt;geom_col()&lt;/code&gt;&lt;/strong&gt; function.&lt;/p&gt;
+&lt;p&gt;The plot should look like this&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1JhTyipQ4zK6OMSbE7o8yGQcqu2jd-v-D" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;Process your plot with &lt;code&gt;get_plot_key()&lt;/code&gt; and copy the resulting alphanumeric string.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Enter the unique key for your plot here&lt;/strong&gt;: {e7d9150ece82b4f6c3d218df006a1187 |5}&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Complete the below code to create a colored line graph&lt;/strong&gt; &lt;strong&gt;showing a separate line for each country.&lt;/strong&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+             mapping = aes(x = year, 
+                           y = total_cases,
+                           {[color][col][colour]} = country)) {+} 
+      {geom_line()}&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;The plot that should be created from the code above will look like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1Sx976axJetgwVmCyg497WlxRu-tLD6VB" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;Let’s say I want the lines in the plot to be a little thicker.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Name an aesthetic argument you can use to change the width of lines in a line graph&lt;/strong&gt;. {[size][lwd][linewidth]}&lt;/p&gt;
+&lt;p&gt;I wrote the following code to change the width of all lines in this plot to 1 mm:&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+             mapping = aes(x = year, 
+                           y = total_cases,
+                           color = country,
+                           size = 1)) + 
+      geom_line()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1I_vjbJEI70BArdA85zSwlQ6dHg5tM1PH" width="480" /&gt;&lt;/p&gt;
+&lt;p&gt;Uh oh! That doesn’t look right. Can you find and fix the mistake in my code?&lt;/p&gt;
+&lt;p&gt;Hint: Aesthetic arguments like &lt;code&gt;x&lt;/code&gt;, &lt;code&gt;y&lt;/code&gt;, &lt;code&gt;color&lt;/code&gt;, &lt;code&gt;fill&lt;/code&gt;, and &lt;code&gt;size&lt;/code&gt; can either be a mapping of a variable or a fixed value. This depends on whether they are written inside &lt;code&gt;mapping = aes()&lt;/code&gt; or inside a &lt;code&gt;geom_*()&lt;/code&gt; function.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Use the &lt;code&gt;hiv_prevalence&lt;/code&gt; dataframe in R to create the line graph of population vs. year where the width of all lines is 1 mm.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;The plot should look like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1ltOynNTdOOj95iJwm0lgfZ56eb1BPS7v" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Enter the unique key for your plot here&lt;/strong&gt;: {9a592bf9e5404f63f9e5eae33499fe32 |5}&lt;/p&gt;
+&lt;p&gt;Here are two plots showing the distribution of &lt;code&gt;total_cases&lt;/code&gt; for each country.&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1b0JgHf_1Spa9sIOnT01Rk0u28qc3BSDP" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Identify which plot is using the &lt;code&gt;color&lt;/code&gt; aesthetic for the &lt;code&gt;country&lt;/code&gt; variable.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Answer with &lt;code&gt;A&lt;/code&gt; or &lt;code&gt;B&lt;/code&gt;: Plot {B}&lt;/p&gt;
+&lt;p&gt;Now let’s create a bar plot where the outline color and fill color are different. For example, the bars in this bar plot of cases per year have colorful segments and a black outline:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=16VTixgmj9pkJTVzr9tqa1mcA0H-SIY63" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Complete the code below to generate this plot.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Hint: The R color used to color points in this plot is “black”.&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+       mapping = aes(x = year,
+                     y = total_cases,
+                     {fill} = {country})) +
+  geom_point({[color][col][colour]} = {[&amp;quot;black&amp;quot;][&amp;quot;#000000&amp;quot;]})&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;Here are two plots showing the change in population over time for each country:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1lrYh0akAM79IzDE84AC0yMA7fntvLMY5" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Complete the code below to create Plot B&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Note: The R color used to color points in Plot B is called “lightgray”.&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+             mapping = aes(x = year, 
+                           {[y = population][population]|2})) {+} 
+      {geom_line({[color = point_color][colour = point_color][col = point_color]|2})}&lt;/code&gt;&lt;/pre&gt;
 &lt;/div&gt;</t>
   </si>
 </sst>
@@ -678,7 +807,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
@@ -703,7 +832,7 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="T2"/>
       <c r="U2"/>
@@ -724,7 +853,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
         <v>26</v>
@@ -749,57 +878,11 @@
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4" t="n">
-        <v>60</v>
-      </c>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/quizzes/ls01_gg_intro/ls01_gg_intro_data_quiz/idar_ls01_gg_intro_data_quiz.xlsx
+++ b/quizzes/ls01_gg_intro/ls01_gg_intro_data_quiz/idar_ls01_gg_intro_data_quiz.xlsx
@@ -97,47 +97,13 @@
   <si>
     <t xml:space="preserve">
 &lt;p&gt;Welcome to your first data-based quiz on data visualization! For data-based quizzes, you will need to import data into R as you follow the questions.&lt;/p&gt;
-&lt;p&gt;Click &lt;a href="https://drive.google.com/file/d/1L5_lJXd22f8nA0SdUBh0U3XxcnBVrAmb/view?usp=drivesdk" target="_blank"&gt;&lt;strong&gt;here&lt;/strong&gt;&lt;/a&gt; to view and download the data. Or import it directly into R with the code below:&lt;/p&gt;
+&lt;p&gt;Click &lt;a href="https://drive.google.com/file/d/1mh3HJSlldxzdHszphABv5HPSZRvd7kCl/view?usp=drivesdk" target="_blank"&gt;&lt;strong&gt;here&lt;/strong&gt;&lt;/a&gt; to view and download the data. Or import it directly into R with the code below:&lt;/p&gt;
 &lt;pre&gt;&lt;code&gt;if(!require(pacman)) install.packages(&amp;quot;pacman&amp;quot;)   
 pacman::p_load(rio)   
-hiv_prevalence &amp;lt;- import(&amp;quot;https://docs.google.com/uc?id=1L5_lJXd22f8nA0SdUBh0U3XxcnBVrAmb&amp;amp;export=download&amp;quot;,
+hiv_prevalence &amp;lt;- import(&amp;quot;https://docs.google.com/uc?id=1mh3HJSlldxzdHszphABv5HPSZRvd7kCl&amp;amp;export=download&amp;quot;,
  format = &amp;quot;csv&amp;quot;,
  setclass = &amp;quot;tibble&amp;quot;)  &lt;/code&gt;&lt;/pre&gt;
 &lt;p&gt;Note that each time you retry a quiz, the dataset is slightly modified so that you get a different set of countries.&lt;/p&gt;
-&lt;p&gt;Some questions require you to create and submit a plots. You will need to be able run code in R in order to complete this quiz.&lt;/p&gt;
-&lt;p&gt;In order to submit as plots as answers in this quiz, you will need a function called &lt;strong&gt;&lt;code&gt;get_plot_key()&lt;/code&gt;&lt;/strong&gt;. This function will “digest” your plot and give it a unique alphanumeric &lt;strong&gt;key&lt;/strong&gt;, so you don’t need to save and submit every plot for grading.&lt;/p&gt;
-&lt;p&gt;We will now walk you through a reproducible example of how to use &lt;code&gt;get_plot_key()&lt;/code&gt; to create an answer for this quiz.&lt;/p&gt;
-&lt;p&gt;First, run this code to add &lt;code&gt;get_plot_key()&lt;/code&gt; as a function in your R environment.&lt;/p&gt;
-&lt;pre class="r"&gt;&lt;code&gt;# Import function
-# devtools::source_gist(&amp;quot;INSERT LINK&amp;quot;)&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;A quiz question might ask you to do the following:&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Use the &lt;code&gt;iris&lt;/code&gt;&lt;/strong&gt; &lt;strong&gt;dataset in R to create a scatter plot of &lt;code&gt;Sepal.Width&lt;/code&gt; against &lt;code&gt;Sepal.Length&lt;/code&gt;. Color the points by &lt;code&gt;Species&lt;/code&gt;&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;First, write your solution to the quest using &lt;code&gt;ggplot()&lt;/code&gt; in R.&lt;/p&gt;
-&lt;pre class="r"&gt;&lt;code&gt;# Create plot to answer the question
-ggplot(data = iris,
-       mapping = aes(x = Sepal.Width,
-                     y = Sepal.Length,
-                     color = Species)) +
-  geom_point()&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1XqPzNNIrjC6-R3igw7PPK9VSegIx4QUQ" width="672" /&gt;&lt;/p&gt;
-&lt;p&gt;Once you are sure you have your final answer, save your plot as an R object.&lt;/p&gt;
-&lt;pre class="r"&gt;&lt;code&gt;# Store plot as an R object
-plot_name &amp;lt;- 
-  ggplot(data = iris,
-       mapping = aes(x = Sepal.Width,
-                     y = Sepal.Length,
-                     color = Species)) +
-  geom_point()&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Next, put your plot object in the &lt;strong&gt;&lt;code&gt;get_plot_key()&lt;/code&gt;&lt;/strong&gt; function. This will produce the unique key.&lt;/p&gt;
-&lt;pre class="r"&gt;&lt;code&gt;# Run function on plot object
-get_plot_key(plot_name)&lt;/code&gt;&lt;/pre&gt;
-&lt;pre&gt;&lt;code&gt;## [1] &amp;quot;682e8ac53451801795f12306c23e23b7&amp;quot;&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;The unique alphanumeric key for this plot is 1c1df9d84a66e103b59e2b8e0ed1c386. Your key will look different, but it should also be 32 characters long and contain letters and numbers.&lt;/p&gt;
-&lt;p&gt;Finally, you will need to submit your answer by copying the key string and pasting into the corresponding answer box in this quiz.&lt;/p&gt;
-&lt;p&gt;The answer box will look like this:&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Enter the unique key for your plot here&lt;/strong&gt;: {682e8ac53451801795f12306c23e23b7}&lt;/p&gt;
-&lt;p&gt;Try entering the key from the last plot.&lt;/p&gt;
-&lt;p&gt;We will use the keys to check your answers, so please ensure you have copied and pasted the whole key string correctly.&lt;/p&gt;
 &lt;div id="hiv-dataset" class="section level1"&gt;
 &lt;h1&gt;HIV dataset&lt;/h1&gt;
 &lt;p&gt;Here, you will analyze parts of a dataset documenting global HIV prevalence from 1990 to 2011.&lt;/p&gt;
@@ -152,7 +118,11 @@
 ## 4 Brazil   1998      410000  169472347
 ## 5 Brazil   1999      430000  172006362
 ## 6 Brazil   2000      440000  174504898&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;There are four variables: 1. &lt;strong&gt;&lt;code&gt;country&lt;/code&gt;&lt;/strong&gt; : Country name 2. &lt;strong&gt;&lt;code&gt;year&lt;/code&gt;&lt;/strong&gt; : Calendar year 3. &lt;strong&gt;&lt;code&gt;total_cases&lt;/code&gt;&lt;/strong&gt;: Number of people estimated to be infected by HIV. 4. &lt;strong&gt;&lt;code&gt;population&lt;/code&gt;&lt;/strong&gt;: Total population&lt;/p&gt;
+&lt;p&gt;There are four variables:&lt;/p&gt;
+&lt;p&gt;1. &lt;strong&gt;&lt;code&gt;country&lt;/code&gt;&lt;/strong&gt; : Country name&lt;/p&gt;
+&lt;p&gt;2. &lt;strong&gt;&lt;code&gt;year&lt;/code&gt;&lt;/strong&gt; : Calendar year&lt;/p&gt;
+&lt;p&gt;3. &lt;strong&gt;&lt;code&gt;total_cases&lt;/code&gt;&lt;/strong&gt;: Number of people estimated to be infected by HIV.&lt;/p&gt;
+&lt;p&gt;4. &lt;strong&gt;&lt;code&gt;population&lt;/code&gt;&lt;/strong&gt;: Total population&lt;/p&gt;
 &lt;p&gt;Take a closer look at the composition of each variable:&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;summary(hiv_prevalence)&lt;/code&gt;&lt;/pre&gt;
 &lt;pre&gt;&lt;code&gt;##      country        year       total_cases     
@@ -173,9 +143,9 @@
 &lt;p&gt;In this quiz you will create plots to look at how the number of total HIV cases in these countries changes over this time period.&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Complete the code below to create a simple scatter plot of HIV incidence over time using &lt;code&gt;ggplot()&lt;/code&gt;.&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;The resulting plot should look like this:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1QzOQ8vur828rV6JfTjO52yPF6YK59DeB" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=166x38GQTod94uwHtgIuMY6KJZ65yRVQf" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;Hint: note which variables are mapped to which axis, and refer to the &lt;code&gt;ggplot()&lt;/code&gt; syntax template to structure your code.&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1MO5V5gsljPxh2zT207Py6PIwjv-sRI1_" width="943" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1guTkbucEAxrgj2LEoDfbuAeiMR0vEOiF" width="943" /&gt;&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
        mapping = aes(x = {year},
                        y = {total_cases})) +
@@ -190,10 +160,8 @@
 &lt;p&gt;The aesthetic argument we just added is a fixed aesthetic: {[false][f]} (&lt;strong&gt;&lt;code&gt;true&lt;/code&gt;&lt;/strong&gt; or &lt;strong&gt;&lt;code&gt;false&lt;/code&gt;&lt;/strong&gt;)&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Use the &lt;code&gt;high_prevalence&lt;/code&gt;&lt;/strong&gt; &lt;strong&gt;dataset in R to create a stacked bar plot of total cases per year.&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;Hint: you will need to use the &lt;strong&gt;&lt;code&gt;geom_col()&lt;/code&gt;&lt;/strong&gt; function.&lt;/p&gt;
-&lt;p&gt;The plot should look like this&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1Hv0lnzHu5g0pCKpZLnMZnlBSnq4Ez6AX" width="672" /&gt;&lt;/p&gt;
-&lt;p&gt;Process your plot with &lt;code&gt;get_plot_key()&lt;/code&gt; and copy the resulting alphanumeric string.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Enter the unique key for your plot here&lt;/strong&gt;: {4c576cb06d0eced3d62ddc22f15fcf9c |5}&lt;/p&gt;
+&lt;p&gt;The plot should look like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1OL1J1-h8Ig2TeH6YcJJCUoA1cP5KHb5i" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Complete the below code to create a colored line graph&lt;/strong&gt; &lt;strong&gt;showing a separate line for each country.&lt;/strong&gt;&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
              mapping = aes(x = year, 
@@ -201,7 +169,7 @@
                            {[color][col][colour]} = country)) {+} 
       {geom_line()}&lt;/code&gt;&lt;/pre&gt;
 &lt;p&gt;The plot that should be created from the code above will look like this:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=10S8Ch3X7tC1ijPwBL8WLXZiF2cmOiG1r" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1gRWlIDWXyXOLsTr7dLtoOu2ibuYSunqw" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;Let’s say I want the lines in the plot to be a little thicker.&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Name an aesthetic argument you can use to change the width of lines in a line graph&lt;/strong&gt;. {[size][lwd][linewidth]}&lt;/p&gt;
 &lt;p&gt;I wrote the following code to change the width of all lines in this plot to 1 mm:&lt;/p&gt;
@@ -211,19 +179,18 @@
                            color = country,
                            size = 1)) + 
       geom_line()&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1oLiwvARnt2u6W2h0fC_ihSeBjZy7ufvH" width="480" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=11HrFTUktbplZrZvMYscem8jDSMFlnPWb" width="480" /&gt;&lt;/p&gt;
 &lt;p&gt;Uh oh! That doesn’t look right. Can you find and fix the mistake in my code?&lt;/p&gt;
-&lt;p&gt;Hint: Aesthetic arguments like &lt;code&gt;x&lt;/code&gt;, &lt;code&gt;y&lt;/code&gt;, &lt;code&gt;color&lt;/code&gt;, &lt;code&gt;fill&lt;/code&gt;, and &lt;code&gt;size&lt;/code&gt; can either be a mapping of a variable or a fixed value. This depends on whether they are written inside &lt;code&gt;mapping = aes()&lt;/code&gt; or inside a &lt;code&gt;geom_*()&lt;/code&gt; function.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Hint: Aesthetic arguments like &lt;code&gt;x&lt;/code&gt;, &lt;code&gt;y&lt;/code&gt;, &lt;code&gt;color&lt;/code&gt;, &lt;code&gt;fill&lt;/code&gt;, and &lt;code&gt;size&lt;/code&gt; can either be a mapping of a variable or a fixed value. This depends on whether they are written inside &lt;code&gt;mapping = aes()&lt;/code&gt; or inside a &lt;code&gt;geom_*()&lt;/code&gt; function.&lt;/em&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Use the &lt;code&gt;hiv_prevalence&lt;/code&gt; dataframe in R to create the line graph of population vs. year where the width of all lines is 1 mm.&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;The plot should look like this:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1lfcJMJQ6ZlszDAhsgfpWLs7VgTzOBJOM" width="672" /&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Enter the unique key for your plot here&lt;/strong&gt;: {efdfc926867db6dd5526899f9561c9d4 |5}&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1VAEsr4xHdOJWU3ovLmSaRsIq9oOZDY0T" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;Here are two plots showing the distribution of &lt;code&gt;total_cases&lt;/code&gt; for each country.&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1FsIVz2JAynTJaDHTnbF17cXo7i6ghozh" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1D39AOoSlDye1zICvaVDfI-RecvibYEsQ" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Identify which plot is using the &lt;code&gt;color&lt;/code&gt; aesthetic for the &lt;code&gt;country&lt;/code&gt; variable.&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;Answer with &lt;code&gt;A&lt;/code&gt; or &lt;code&gt;B&lt;/code&gt;: Plot {B}&lt;/p&gt;
 &lt;p&gt;Now let’s create a bar plot where the outline color and fill color are different. For example, the bars in this bar plot of cases per year have colorful segments and a black outline:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1jcCO0n7VW9QsJwUIxK5xBlwIYN7UkCQE" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=15TrncBPDJWemKTL0MhAZclG1GFuumh1F" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Complete the code below to generate this plot.&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;Hint: The R color used to color points in this plot is “black”.&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
@@ -232,13 +199,16 @@
                      {fill} = {country})) +
   geom_point({[color][col][colour]} = {[&amp;quot;black&amp;quot;][&amp;quot;#000000&amp;quot;]})&lt;/code&gt;&lt;/pre&gt;
 &lt;p&gt;Here are two plots showing the change in population over time for each country:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1cZJy1bS217EZSSKjc7ftmVbJTtu2ISU3" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1IM2fqdxs2gp1bpw8Qkh4PS9Cg69KYNOl" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Complete the code below to create Plot B&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;Note: The R color used to color points in Plot B is called “orchid1”.&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
              mapping = aes(x = year, 
                            {[y = population][population]|2})) {+} 
       {geom_line({[color = point_color][colour = point_color][col = point_color]|2})}&lt;/code&gt;&lt;/pre&gt;
+&lt;hr /&gt;
+&lt;p&gt;&lt;strong&gt;Next, create a ggplot2 line graph of population over time. Then indicate which of the plots below (from a to f) most closely resembles your output plot. Letter answer: {a}&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1vt-DSfeT4y4ojZS5nK7eAvynqP_CmeA_" width="672" /&gt;&lt;/p&gt;
 &lt;/div&gt;</t>
   </si>
   <si>
@@ -250,47 +220,13 @@
   <si>
     <t xml:space="preserve">
 &lt;p&gt;Welcome to your first data-based quiz on data visualization! For data-based quizzes, you will need to import data into R as you follow the questions.&lt;/p&gt;
-&lt;p&gt;Click &lt;a href="https://drive.google.com/file/d/1NH9JLYivN5ahuonyV7c0GPaAAmdntUzK/view?usp=drivesdk" target="_blank"&gt;&lt;strong&gt;here&lt;/strong&gt;&lt;/a&gt; to view and download the data. Or import it directly into R with the code below:&lt;/p&gt;
+&lt;p&gt;Click &lt;a href="https://drive.google.com/file/d/1pncj-GqITnQ3aAESR2z0F9L-AqgUO8GD/view?usp=drivesdk" target="_blank"&gt;&lt;strong&gt;here&lt;/strong&gt;&lt;/a&gt; to view and download the data. Or import it directly into R with the code below:&lt;/p&gt;
 &lt;pre&gt;&lt;code&gt;if(!require(pacman)) install.packages(&amp;quot;pacman&amp;quot;)   
 pacman::p_load(rio)   
-hiv_prevalence &amp;lt;- import(&amp;quot;https://docs.google.com/uc?id=1NH9JLYivN5ahuonyV7c0GPaAAmdntUzK&amp;amp;export=download&amp;quot;,
+hiv_prevalence &amp;lt;- import(&amp;quot;https://docs.google.com/uc?id=1pncj-GqITnQ3aAESR2z0F9L-AqgUO8GD&amp;amp;export=download&amp;quot;,
  format = &amp;quot;csv&amp;quot;,
  setclass = &amp;quot;tibble&amp;quot;)  &lt;/code&gt;&lt;/pre&gt;
 &lt;p&gt;Note that each time you retry a quiz, the dataset is slightly modified so that you get a different set of countries.&lt;/p&gt;
-&lt;p&gt;Some questions require you to create and submit a plots. You will need to be able run code in R in order to complete this quiz.&lt;/p&gt;
-&lt;p&gt;In order to submit as plots as answers in this quiz, you will need a function called &lt;strong&gt;&lt;code&gt;get_plot_key()&lt;/code&gt;&lt;/strong&gt;. This function will “digest” your plot and give it a unique alphanumeric &lt;strong&gt;key&lt;/strong&gt;, so you don’t need to save and submit every plot for grading.&lt;/p&gt;
-&lt;p&gt;We will now walk you through a reproducible example of how to use &lt;code&gt;get_plot_key()&lt;/code&gt; to create an answer for this quiz.&lt;/p&gt;
-&lt;p&gt;First, run this code to add &lt;code&gt;get_plot_key()&lt;/code&gt; as a function in your R environment.&lt;/p&gt;
-&lt;pre class="r"&gt;&lt;code&gt;# Import function
-# devtools::source_gist(&amp;quot;INSERT LINK&amp;quot;)&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;A quiz question might ask you to do the following:&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Use the &lt;code&gt;iris&lt;/code&gt;&lt;/strong&gt; &lt;strong&gt;dataset in R to create a scatter plot of &lt;code&gt;Sepal.Width&lt;/code&gt; against &lt;code&gt;Sepal.Length&lt;/code&gt;. Color the points by &lt;code&gt;Species&lt;/code&gt;&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;First, write your solution to the quest using &lt;code&gt;ggplot()&lt;/code&gt; in R.&lt;/p&gt;
-&lt;pre class="r"&gt;&lt;code&gt;# Create plot to answer the question
-ggplot(data = iris,
-       mapping = aes(x = Sepal.Width,
-                     y = Sepal.Length,
-                     color = Species)) +
-  geom_point()&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1i6wa3Xy1SPZDJhI_0-3AcJ0G2-KkCb7h" width="672" /&gt;&lt;/p&gt;
-&lt;p&gt;Once you are sure you have your final answer, save your plot as an R object.&lt;/p&gt;
-&lt;pre class="r"&gt;&lt;code&gt;# Store plot as an R object
-plot_name &amp;lt;- 
-  ggplot(data = iris,
-       mapping = aes(x = Sepal.Width,
-                     y = Sepal.Length,
-                     color = Species)) +
-  geom_point()&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Next, put your plot object in the &lt;strong&gt;&lt;code&gt;get_plot_key()&lt;/code&gt;&lt;/strong&gt; function. This will produce the unique key.&lt;/p&gt;
-&lt;pre class="r"&gt;&lt;code&gt;# Run function on plot object
-get_plot_key(plot_name)&lt;/code&gt;&lt;/pre&gt;
-&lt;pre&gt;&lt;code&gt;## [1] &amp;quot;682e8ac53451801795f12306c23e23b7&amp;quot;&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;The unique alphanumeric key for this plot is 1c1df9d84a66e103b59e2b8e0ed1c386. Your key will look different, but it should also be 32 characters long and contain letters and numbers.&lt;/p&gt;
-&lt;p&gt;Finally, you will need to submit your answer by copying the key string and pasting into the corresponding answer box in this quiz.&lt;/p&gt;
-&lt;p&gt;The answer box will look like this:&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Enter the unique key for your plot here&lt;/strong&gt;: {682e8ac53451801795f12306c23e23b7}&lt;/p&gt;
-&lt;p&gt;Try entering the key from the last plot.&lt;/p&gt;
-&lt;p&gt;We will use the keys to check your answers, so please ensure you have copied and pasted the whole key string correctly.&lt;/p&gt;
 &lt;div id="hiv-dataset" class="section level1"&gt;
 &lt;h1&gt;HIV dataset&lt;/h1&gt;
 &lt;p&gt;Here, you will analyze parts of a dataset documenting global HIV prevalence from 1990 to 2011.&lt;/p&gt;
@@ -305,7 +241,11 @@
 ## 4 Ghana    1998      220000   17968830
 ## 5 Ghana    1999      230000   18384302
 ## 6 Ghana    2000      240000   18825034&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;There are four variables: 1. &lt;strong&gt;&lt;code&gt;country&lt;/code&gt;&lt;/strong&gt; : Country name 2. &lt;strong&gt;&lt;code&gt;year&lt;/code&gt;&lt;/strong&gt; : Calendar year 3. &lt;strong&gt;&lt;code&gt;total_cases&lt;/code&gt;&lt;/strong&gt;: Number of people estimated to be infected by HIV. 4. &lt;strong&gt;&lt;code&gt;population&lt;/code&gt;&lt;/strong&gt;: Total population&lt;/p&gt;
+&lt;p&gt;There are four variables:&lt;/p&gt;
+&lt;p&gt;1. &lt;strong&gt;&lt;code&gt;country&lt;/code&gt;&lt;/strong&gt; : Country name&lt;/p&gt;
+&lt;p&gt;2. &lt;strong&gt;&lt;code&gt;year&lt;/code&gt;&lt;/strong&gt; : Calendar year&lt;/p&gt;
+&lt;p&gt;3. &lt;strong&gt;&lt;code&gt;total_cases&lt;/code&gt;&lt;/strong&gt;: Number of people estimated to be infected by HIV.&lt;/p&gt;
+&lt;p&gt;4. &lt;strong&gt;&lt;code&gt;population&lt;/code&gt;&lt;/strong&gt;: Total population&lt;/p&gt;
 &lt;p&gt;Take a closer look at the composition of each variable:&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;summary(hiv_prevalence)&lt;/code&gt;&lt;/pre&gt;
 &lt;pre&gt;&lt;code&gt;##      country        year       total_cases    
@@ -326,9 +266,9 @@
 &lt;p&gt;In this quiz you will create plots to look at how the number of total HIV cases in these countries changes over this time period.&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Complete the code below to create a simple scatter plot of HIV incidence over time using &lt;code&gt;ggplot()&lt;/code&gt;.&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;The resulting plot should look like this:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1UucsnR2nyoC8CHBnWZTarhnS6p9k1jmI" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1FP955dFsJjQf-aEoFdJqLRlE9lGnt3iy" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;Hint: note which variables are mapped to which axis, and refer to the &lt;code&gt;ggplot()&lt;/code&gt; syntax template to structure your code.&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1aCisllnJUWvGlRztMSRyIapgjl1oyjX2" width="943" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1hlUVdGwc71yqZG6ESZGWaVAiCwGQA6W2" width="943" /&gt;&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
        mapping = aes(x = {year},
                        y = {total_cases})) +
@@ -343,10 +283,8 @@
 &lt;p&gt;The aesthetic argument we just added is a fixed aesthetic: {[false][f]} (&lt;strong&gt;&lt;code&gt;true&lt;/code&gt;&lt;/strong&gt; or &lt;strong&gt;&lt;code&gt;false&lt;/code&gt;&lt;/strong&gt;)&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Use the &lt;code&gt;high_prevalence&lt;/code&gt;&lt;/strong&gt; &lt;strong&gt;dataset in R to create a stacked bar plot of total cases per year.&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;Hint: you will need to use the &lt;strong&gt;&lt;code&gt;geom_col()&lt;/code&gt;&lt;/strong&gt; function.&lt;/p&gt;
-&lt;p&gt;The plot should look like this&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1JhTyipQ4zK6OMSbE7o8yGQcqu2jd-v-D" width="672" /&gt;&lt;/p&gt;
-&lt;p&gt;Process your plot with &lt;code&gt;get_plot_key()&lt;/code&gt; and copy the resulting alphanumeric string.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Enter the unique key for your plot here&lt;/strong&gt;: {e7d9150ece82b4f6c3d218df006a1187 |5}&lt;/p&gt;
+&lt;p&gt;The plot should look like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1WHlflCdPibZdLTlAUNZrbu-ERBnHbIYh" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Complete the below code to create a colored line graph&lt;/strong&gt; &lt;strong&gt;showing a separate line for each country.&lt;/strong&gt;&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
              mapping = aes(x = year, 
@@ -354,7 +292,7 @@
                            {[color][col][colour]} = country)) {+} 
       {geom_line()}&lt;/code&gt;&lt;/pre&gt;
 &lt;p&gt;The plot that should be created from the code above will look like this:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1Sx976axJetgwVmCyg497WlxRu-tLD6VB" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1CQerfAZKFyNpMKvv1rOivXJg0da8fw81" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;Let’s say I want the lines in the plot to be a little thicker.&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Name an aesthetic argument you can use to change the width of lines in a line graph&lt;/strong&gt;. {[size][lwd][linewidth]}&lt;/p&gt;
 &lt;p&gt;I wrote the following code to change the width of all lines in this plot to 1 mm:&lt;/p&gt;
@@ -364,19 +302,18 @@
                            color = country,
                            size = 1)) + 
       geom_line()&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1I_vjbJEI70BArdA85zSwlQ6dHg5tM1PH" width="480" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1KO2fZ8hQpqKdKpRDFR_phtaoHvKYKvB2" width="480" /&gt;&lt;/p&gt;
 &lt;p&gt;Uh oh! That doesn’t look right. Can you find and fix the mistake in my code?&lt;/p&gt;
-&lt;p&gt;Hint: Aesthetic arguments like &lt;code&gt;x&lt;/code&gt;, &lt;code&gt;y&lt;/code&gt;, &lt;code&gt;color&lt;/code&gt;, &lt;code&gt;fill&lt;/code&gt;, and &lt;code&gt;size&lt;/code&gt; can either be a mapping of a variable or a fixed value. This depends on whether they are written inside &lt;code&gt;mapping = aes()&lt;/code&gt; or inside a &lt;code&gt;geom_*()&lt;/code&gt; function.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Hint: Aesthetic arguments like &lt;code&gt;x&lt;/code&gt;, &lt;code&gt;y&lt;/code&gt;, &lt;code&gt;color&lt;/code&gt;, &lt;code&gt;fill&lt;/code&gt;, and &lt;code&gt;size&lt;/code&gt; can either be a mapping of a variable or a fixed value. This depends on whether they are written inside &lt;code&gt;mapping = aes()&lt;/code&gt; or inside a &lt;code&gt;geom_*()&lt;/code&gt; function.&lt;/em&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Use the &lt;code&gt;hiv_prevalence&lt;/code&gt; dataframe in R to create the line graph of population vs. year where the width of all lines is 1 mm.&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;The plot should look like this:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1ltOynNTdOOj95iJwm0lgfZ56eb1BPS7v" width="672" /&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Enter the unique key for your plot here&lt;/strong&gt;: {9a592bf9e5404f63f9e5eae33499fe32 |5}&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1z1fIh0CLJKRUfUxKHlnfmwseRlFbvjjG" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;Here are two plots showing the distribution of &lt;code&gt;total_cases&lt;/code&gt; for each country.&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1b0JgHf_1Spa9sIOnT01Rk0u28qc3BSDP" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1XnKjPggFYL1bQPXryOlQurwixzw7rjx6" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Identify which plot is using the &lt;code&gt;color&lt;/code&gt; aesthetic for the &lt;code&gt;country&lt;/code&gt; variable.&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;Answer with &lt;code&gt;A&lt;/code&gt; or &lt;code&gt;B&lt;/code&gt;: Plot {B}&lt;/p&gt;
 &lt;p&gt;Now let’s create a bar plot where the outline color and fill color are different. For example, the bars in this bar plot of cases per year have colorful segments and a black outline:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=16VTixgmj9pkJTVzr9tqa1mcA0H-SIY63" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1ERiyguvBr0egnpUMw0j3y_3l2d9Wr3nX" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Complete the code below to generate this plot.&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;Hint: The R color used to color points in this plot is “black”.&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
@@ -385,13 +322,16 @@
                      {fill} = {country})) +
   geom_point({[color][col][colour]} = {[&amp;quot;black&amp;quot;][&amp;quot;#000000&amp;quot;]})&lt;/code&gt;&lt;/pre&gt;
 &lt;p&gt;Here are two plots showing the change in population over time for each country:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1lrYh0akAM79IzDE84AC0yMA7fntvLMY5" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1NnmzvzeyE5VDQrAKXm_EgZF3mUeWAKyp" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Complete the code below to create Plot B&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;Note: The R color used to color points in Plot B is called “lightgray”.&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
              mapping = aes(x = year, 
                            {[y = population][population]|2})) {+} 
       {geom_line({[color = point_color][colour = point_color][col = point_color]|2})}&lt;/code&gt;&lt;/pre&gt;
+&lt;hr /&gt;
+&lt;p&gt;&lt;strong&gt;Next, create a ggplot2 line graph of population over time. Then indicate which of the plots below (from a to f) most closely resembles your output plot. Letter answer: {a}&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1kiES3x--v6nTT5_mQ3exxxcUneGKnmLh" width="672" /&gt;&lt;/p&gt;
 &lt;/div&gt;</t>
   </si>
 </sst>
@@ -807,7 +747,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
@@ -832,7 +772,7 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="T2"/>
       <c r="U2"/>
@@ -853,7 +793,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
         <v>26</v>
@@ -878,7 +818,7 @@
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="T3"/>
       <c r="U3"/>

--- a/quizzes/ls01_gg_intro/ls01_gg_intro_data_quiz/idar_ls01_gg_intro_data_quiz.xlsx
+++ b/quizzes/ls01_gg_intro/ls01_gg_intro_data_quiz/idar_ls01_gg_intro_data_quiz.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">Quiz title</t>
   </si>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">Certificate</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Quiz | Building plots with {ggplot2}</t>
+    <t xml:space="preserve">Data Quiz | Intro to {ggplot2}</t>
   </si>
   <si>
     <t xml:space="preserve">cloze_answer</t>
@@ -96,20 +96,19 @@
   </si>
   <si>
     <t xml:space="preserve">
-&lt;p&gt;Welcome to your first data-based quiz on data visualization! For data-based quizzes, you will need to import data into R as you follow the questions.&lt;/p&gt;
-&lt;p&gt;Click &lt;a href="https://drive.google.com/file/d/1mh3HJSlldxzdHszphABv5HPSZRvd7kCl/view?usp=drivesdk" target="_blank"&gt;&lt;strong&gt;here&lt;/strong&gt;&lt;/a&gt; to view and download the data. Or import it directly into R with the code below:&lt;/p&gt;
+&lt;p&gt;Welcome to your first data-based quiz on data visualization! For data-based quizzes, you will need to import data into R as you follow the questions. Here, you will analyze HIV cases from around the world.&lt;/p&gt;
+&lt;div id="hiv-dataset" class="section level1"&gt;
+&lt;h1&gt;HIV dataset&lt;/h1&gt;
+&lt;p&gt;Click &lt;a href="https://drive.google.com/file/d/1qWagLjwsKsgzvan9zI43ugqXNpz4G0xm/view?usp=drivesdk" target="_blank"&gt;&lt;strong&gt;here&lt;/strong&gt;&lt;/a&gt; to view and download the data. Or import it directly into R with the code below:&lt;/p&gt;
 &lt;pre&gt;&lt;code&gt;if(!require(pacman)) install.packages(&amp;quot;pacman&amp;quot;)   
 pacman::p_load(rio)   
-hiv_prevalence &amp;lt;- import(&amp;quot;https://docs.google.com/uc?id=1mh3HJSlldxzdHszphABv5HPSZRvd7kCl&amp;amp;export=download&amp;quot;,
+hiv_prevalence &amp;lt;- import(&amp;quot;https://docs.google.com/uc?id=1qWagLjwsKsgzvan9zI43ugqXNpz4G0xm&amp;amp;export=download&amp;quot;,
  format = &amp;quot;csv&amp;quot;,
  setclass = &amp;quot;tibble&amp;quot;)  &lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Note that each time you retry a quiz, the dataset is slightly modified so that you get a different set of countries.&lt;/p&gt;
-&lt;div id="hiv-dataset" class="section level1"&gt;
-&lt;h1&gt;HIV dataset&lt;/h1&gt;
-&lt;p&gt;Here, you will analyze parts of a dataset documenting global HIV prevalence from 1990 to 2011.&lt;/p&gt;
-&lt;p&gt;Here are the top 6 rows of &lt;strong&gt;&lt;code&gt;hiv_prevalence&lt;/code&gt;&lt;/strong&gt; after import:&lt;/p&gt;
+&lt;p&gt;Note that each time you retry a quiz, the dataset is slightly modified so that you get a different set of countries. If you are retaking this quiz, please ensure that download the new data again.&lt;/p&gt;
+&lt;p&gt;Let’s look at the top 6 rows of &lt;strong&gt;&lt;code&gt;hiv_prevalence&lt;/code&gt;&lt;/strong&gt; after import:&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;head(hiv_prevalence)&lt;/code&gt;&lt;/pre&gt;
-&lt;pre&gt;&lt;code&gt;## # A tibble: 6 × 4
+&lt;pre&gt;&lt;code&gt;## # A tibble: 6 x 4
 ##   country  year total_cases population
 ##   &amp;lt;fct&amp;gt;   &amp;lt;dbl&amp;gt;       &amp;lt;dbl&amp;gt;      &amp;lt;dbl&amp;gt;
 ## 1 Brazil   1995      350000  161890816
@@ -139,76 +138,104 @@
 ##  Mean   :4.236e+08  
 ##  3rd Qu.:1.008e+09  
 ##  Max.   :1.190e+09&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;This version of the dataset contains records of HIV case count and population for &lt;strong&gt;3 countries&lt;/strong&gt; over &lt;strong&gt;15 years&lt;/strong&gt; (1995 to 2009).&lt;/p&gt;
+&lt;p&gt;The countries in your dataset are: Brazil, Cameroon, India.&lt;/p&gt;
 &lt;p&gt;In this quiz you will create plots to look at how the number of total HIV cases in these countries changes over this time period.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Complete the code below to create a simple scatter plot of HIV incidence over time using &lt;code&gt;ggplot()&lt;/code&gt;.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;The resulting plot should look like this:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=166x38GQTod94uwHtgIuMY6KJZ65yRVQf" width="672" /&gt;&lt;/p&gt;
-&lt;p&gt;Hint: note which variables are mapped to which axis, and refer to the &lt;code&gt;ggplot()&lt;/code&gt; syntax template to structure your code.&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1guTkbucEAxrgj2LEoDfbuAeiMR0vEOiF" width="943" /&gt;&lt;/p&gt;
-&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+&lt;div id="basic-scatter-plot" class="section level2"&gt;
+&lt;h2&gt;Basic scatter plot&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Complete the code below to create a simple scatter plot of HIV cases over time using &lt;code&gt;ggplot()&lt;/code&gt;.&lt;/strong&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = {hiv_prevalence}, 
        mapping = aes(x = {year},
-                       y = {total_cases})) +
-  geom_point()&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;This scatter plot doesn’t allow us to distinguish between the 3 countries in the dataset.&lt;/p&gt;
+                     y = {total_cases})) +
+  {geom_point()}&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;When you run the completed code in R, the resulting plot should look like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1lzYNHyWW0-yKKIUNygn-d0IbWvBQNiEo" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Hint&lt;/strong&gt;: Refer to the &lt;code&gt;ggplot()&lt;/code&gt; code template.&lt;/p&gt;
+&lt;p&gt;&lt;img src="images/gg_min_build3-01.png" width="577" /&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="scatterplot-with-color" class="section level2"&gt;
+&lt;h2&gt;Scatterplot with color&lt;/h2&gt;
+&lt;p&gt;The points in this scatter plot are all the same, so it doesn’t allow us to visually see which country each data point is from.&lt;/p&gt;
+&lt;p&gt;We can modify the code from the basic scatter plot to create a plot like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1iTbLiAZotnIgynssh4mxe2jZJOq5sD2h" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Add an aesthetic argument that will color each point according to country.&lt;/strong&gt;&lt;/p&gt;
-&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = {hiv_prevalence}, 
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
        {mapping} = aes(x = year,
                        y = total_cases,
                        {[color=country][colour=country][col=country]|2})) +
-  geom_point()&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;The aesthetic argument we just added is a fixed aesthetic: {[false][f]} (&lt;strong&gt;&lt;code&gt;true&lt;/code&gt;&lt;/strong&gt; or &lt;strong&gt;&lt;code&gt;false&lt;/code&gt;&lt;/strong&gt;)&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Use the &lt;code&gt;high_prevalence&lt;/code&gt;&lt;/strong&gt; &lt;strong&gt;dataset in R to create a stacked bar plot of total cases per year.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Hint: you will need to use the &lt;strong&gt;&lt;code&gt;geom_col()&lt;/code&gt;&lt;/strong&gt; function.&lt;/p&gt;
-&lt;p&gt;The plot should look like this:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1OL1J1-h8Ig2TeH6YcJJCUoA1cP5KHb5i" width="672" /&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Complete the below code to create a colored line graph&lt;/strong&gt; &lt;strong&gt;showing a separate line for each country.&lt;/strong&gt;&lt;/p&gt;
-&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
-             mapping = aes(x = year, 
+  {geom_point()}&lt;/code&gt;&lt;/pre&gt;
+&lt;/div&gt;
+&lt;div id="fixed-vs.-mapped-aesthetics" class="section level2"&gt;
+&lt;h2&gt;Fixed vs. mapped aesthetics&lt;/h2&gt;
+&lt;p&gt;The aesthetic argument you added to color the points by &lt;code&gt;country&lt;/code&gt; is a &lt;strong&gt;fixed aesthetic&lt;/strong&gt;, not an &lt;strong&gt;mapping&lt;/strong&gt;: {[false][f]}
+(Enter “true” or “false”)&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="line-graph-with-color" class="section level2"&gt;
+&lt;h2&gt;Line graph with color&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Complete the below code to create a line graph with a different color for each country.&lt;/strong&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot({data} = hiv_prevalence, 
+             mapping = {aes}(x = year, 
                            y = total_cases,
                            {[color][col][colour]} = country)) {+} 
       {geom_line()}&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;The plot that should be created from the code above will look like this:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1gRWlIDWXyXOLsTr7dLtoOu2ibuYSunqw" width="672" /&gt;&lt;/p&gt;
-&lt;p&gt;Let’s say I want the lines in the plot to be a little thicker.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Name an aesthetic argument you can use to change the width of lines in a line graph&lt;/strong&gt;. {[size][lwd][linewidth]}&lt;/p&gt;
-&lt;p&gt;I wrote the following code to change the width of all lines in this plot to 1 mm:&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Which of the plots below (from a to f) most closely resembles your output plot? Letter: {b}&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1QZOYUScgi2v-Db9zrOVyYQMo7XgK1-Su" width="672" /&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="modify-line-width" class="section level2"&gt;
+&lt;h2&gt;Modify line width&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Name an aesthetic argument you can use to change the width of lines in a line graph&lt;/strong&gt;: {[size][lwd][linewidth]}&lt;/p&gt;
+&lt;p&gt;Let’s say I want the lines in the plot to be a little thicker, like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1B60AQVnu6S7iF44tmOFYWE2_7z2u4B7H" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;So I tried to change the width of all lines in this plot to 1 mm with this code:&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
              mapping = aes(x = year, 
                            y = total_cases,
                            color = country,
-                           size = 1)) + 
+                           linewidth = 1)) + 
       geom_line()&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=11HrFTUktbplZrZvMYscem8jDSMFlnPWb" width="480" /&gt;&lt;/p&gt;
-&lt;p&gt;Uh oh! That doesn’t look right. Can you find and fix the mistake in my code?&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;Hint: Aesthetic arguments like &lt;code&gt;x&lt;/code&gt;, &lt;code&gt;y&lt;/code&gt;, &lt;code&gt;color&lt;/code&gt;, &lt;code&gt;fill&lt;/code&gt;, and &lt;code&gt;size&lt;/code&gt; can either be a mapping of a variable or a fixed value. This depends on whether they are written inside &lt;code&gt;mapping = aes()&lt;/code&gt; or inside a &lt;code&gt;geom_*()&lt;/code&gt; function.&lt;/em&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Use the &lt;code&gt;hiv_prevalence&lt;/code&gt; dataframe in R to create the line graph of population vs. year where the width of all lines is 1 mm.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;The plot should look like this:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1VAEsr4xHdOJWU3ovLmSaRsIq9oOZDY0T" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1KuI_r-qVDml6cTFQpGdMMQS0tPQ476wH" width="480" /&gt;&lt;/p&gt;
+&lt;p&gt;Uh oh! The plot doesn’t look right. Can you find the mistake in my code?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Enter “true” or “false” for each statement:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;The geometry function used is correct. {[true][t]}&lt;/p&gt;
+&lt;p&gt;The x &amp;amp; y axis mappings should be outside &lt;code&gt;aes()&lt;/code&gt;. {[false][f]}&lt;/p&gt;
+&lt;p&gt;The size or line width should be assigned in &lt;code&gt;geom_line()&lt;/code&gt;. {[true][t]}&lt;/p&gt;
+&lt;p&gt;The color should be assigned in &lt;code&gt;geom_line()&lt;/code&gt;. {[false][f]}&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Hint&lt;/strong&gt;: Aesthetic arguments like &lt;code&gt;x&lt;/code&gt;, &lt;code&gt;y&lt;/code&gt;, &lt;code&gt;color&lt;/code&gt;, &lt;code&gt;fill&lt;/code&gt;, and &lt;code&gt;size&lt;/code&gt; can either be a mapping of a variable or a fixed value. This depends on whether they are written inside &lt;code&gt;mapping = aes()&lt;/code&gt; or inside a &lt;code&gt;geom_()&lt;/code&gt; function.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="color-vs.-fill" class="section level2"&gt;
+&lt;h2&gt;Color vs. Fill&lt;/h2&gt;
+&lt;div id="plot-1-boxplot" class="section level3"&gt;
+&lt;h3&gt;Plot 1: Boxplot&lt;/h3&gt;
 &lt;p&gt;Here are two plots showing the distribution of &lt;code&gt;total_cases&lt;/code&gt; for each country.&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1D39AOoSlDye1zICvaVDfI-RecvibYEsQ" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1LdOnaYKtZL33S_6K7cn0ZwRcl44oxU2L" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Identify which plot is using the &lt;code&gt;color&lt;/code&gt; aesthetic for the &lt;code&gt;country&lt;/code&gt; variable.&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;Answer with &lt;code&gt;A&lt;/code&gt; or &lt;code&gt;B&lt;/code&gt;: Plot {B}&lt;/p&gt;
-&lt;p&gt;Now let’s create a bar plot where the outline color and fill color are different. For example, the bars in this bar plot of cases per year have colorful segments and a black outline:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=15TrncBPDJWemKTL0MhAZclG1GFuumh1F" width="672" /&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="plot-2-bar-plot" class="section level3"&gt;
+&lt;h3&gt;Plot 2: Bar plot&lt;/h3&gt;
+&lt;p&gt;Now let’s create a stacked bar plot where the outline color and inside color are different. For example, the bars in this bar plot of cases per year have colorful segments and a black outline:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1YhK27PjtuWE-ITSZfPydpyx021ebAg0X" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Complete the code below to generate this plot.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Hint: The R color used to color points in this plot is “black”.&lt;/p&gt;
-&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
-       mapping = aes(x = year,
-                     y = total_cases,
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+       mapping = {aes}(x = year,
+                     y = {population},
                      {fill} = {country})) +
-  geom_point({[color][col][colour]} = {[&amp;quot;black&amp;quot;][&amp;quot;#000000&amp;quot;]})&lt;/code&gt;&lt;/pre&gt;
+  geom_col({[color][col][colour]} = {[&amp;quot;black&amp;quot;][&amp;quot;#000000&amp;quot;]})&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;strong&gt;Hint&lt;/strong&gt;: The R color used to color bar outlines in this plot is “black”.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="plot-3" class="section level3"&gt;
+&lt;h3&gt;Plot 3:&lt;/h3&gt;
 &lt;p&gt;Here are two plots showing the change in population over time for each country:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1IM2fqdxs2gp1bpw8Qkh4PS9Cg69KYNOl" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1EnaUzmw6y_Qf-bfBbMYuZdVVU6g_NgVA" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Complete the code below to create Plot B&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Note: The R color used to color points in Plot B is called “orchid1”.&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
              mapping = aes(x = year, 
                            {[y = population][population]|2})) {+} 
-      {geom_line({[color = point_color][colour = point_color][col = point_color]|2})}&lt;/code&gt;&lt;/pre&gt;
+      geom_line({[color = &amp;quot;seagreen&amp;quot;][colour = &amp;quot;seagreen&amp;quot;][col = &amp;quot;seagreen&amp;quot;]})&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;strong&gt;Hint&lt;/strong&gt;: The R color used to color bar outlines in this plot is “seagreen”.&lt;/p&gt;
 &lt;hr /&gt;
-&lt;p&gt;&lt;strong&gt;Next, create a ggplot2 line graph of population over time. Then indicate which of the plots below (from a to f) most closely resembles your output plot. Letter answer: {a}&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1vt-DSfeT4y4ojZS5nK7eAvynqP_CmeA_" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;**Make sure to review all your answers before checking the quiz. You cannot submit unless all blanks are filled in.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
 &lt;/div&gt;</t>
   </si>
   <si>
@@ -219,20 +246,19 @@
   </si>
   <si>
     <t xml:space="preserve">
-&lt;p&gt;Welcome to your first data-based quiz on data visualization! For data-based quizzes, you will need to import data into R as you follow the questions.&lt;/p&gt;
-&lt;p&gt;Click &lt;a href="https://drive.google.com/file/d/1pncj-GqITnQ3aAESR2z0F9L-AqgUO8GD/view?usp=drivesdk" target="_blank"&gt;&lt;strong&gt;here&lt;/strong&gt;&lt;/a&gt; to view and download the data. Or import it directly into R with the code below:&lt;/p&gt;
+&lt;p&gt;Welcome to your first data-based quiz on data visualization! For data-based quizzes, you will need to import data into R as you follow the questions. Here, you will analyze HIV cases from around the world.&lt;/p&gt;
+&lt;div id="hiv-dataset" class="section level1"&gt;
+&lt;h1&gt;HIV dataset&lt;/h1&gt;
+&lt;p&gt;Click &lt;a href="https://drive.google.com/file/d/1iteW_jVa3GECUVwrSp-rKke90OxarZ4J/view?usp=drivesdk" target="_blank"&gt;&lt;strong&gt;here&lt;/strong&gt;&lt;/a&gt; to view and download the data. Or import it directly into R with the code below:&lt;/p&gt;
 &lt;pre&gt;&lt;code&gt;if(!require(pacman)) install.packages(&amp;quot;pacman&amp;quot;)   
 pacman::p_load(rio)   
-hiv_prevalence &amp;lt;- import(&amp;quot;https://docs.google.com/uc?id=1pncj-GqITnQ3aAESR2z0F9L-AqgUO8GD&amp;amp;export=download&amp;quot;,
+hiv_prevalence &amp;lt;- import(&amp;quot;https://docs.google.com/uc?id=1iteW_jVa3GECUVwrSp-rKke90OxarZ4J&amp;amp;export=download&amp;quot;,
  format = &amp;quot;csv&amp;quot;,
  setclass = &amp;quot;tibble&amp;quot;)  &lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Note that each time you retry a quiz, the dataset is slightly modified so that you get a different set of countries.&lt;/p&gt;
-&lt;div id="hiv-dataset" class="section level1"&gt;
-&lt;h1&gt;HIV dataset&lt;/h1&gt;
-&lt;p&gt;Here, you will analyze parts of a dataset documenting global HIV prevalence from 1990 to 2011.&lt;/p&gt;
-&lt;p&gt;Here are the top 6 rows of &lt;strong&gt;&lt;code&gt;hiv_prevalence&lt;/code&gt;&lt;/strong&gt; after import:&lt;/p&gt;
+&lt;p&gt;Note that each time you retry a quiz, the dataset is slightly modified so that you get a different set of countries. If you are retaking this quiz, please ensure that download the new data again.&lt;/p&gt;
+&lt;p&gt;Let’s look at the top 6 rows of &lt;strong&gt;&lt;code&gt;hiv_prevalence&lt;/code&gt;&lt;/strong&gt; after import:&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;head(hiv_prevalence)&lt;/code&gt;&lt;/pre&gt;
-&lt;pre&gt;&lt;code&gt;## # A tibble: 6 × 4
+&lt;pre&gt;&lt;code&gt;## # A tibble: 6 x 4
 ##   country  year total_cases population
 ##   &amp;lt;fct&amp;gt;   &amp;lt;dbl&amp;gt;       &amp;lt;dbl&amp;gt;      &amp;lt;dbl&amp;gt;
 ## 1 Ghana    1995      170000   16760926
@@ -262,76 +288,545 @@
 ##  Mean   :31334510  
 ##  3rd Qu.:60903042  
 ##  Max.   :66277335&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;This version of the dataset contains records of HIV case count and population for &lt;strong&gt;3 countries&lt;/strong&gt; over &lt;strong&gt;15 years&lt;/strong&gt; (1995 to 2009).&lt;/p&gt;
+&lt;p&gt;The countries in your dataset are: Ghana, Thailand, Zambia.&lt;/p&gt;
 &lt;p&gt;In this quiz you will create plots to look at how the number of total HIV cases in these countries changes over this time period.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Complete the code below to create a simple scatter plot of HIV incidence over time using &lt;code&gt;ggplot()&lt;/code&gt;.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;The resulting plot should look like this:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1FP955dFsJjQf-aEoFdJqLRlE9lGnt3iy" width="672" /&gt;&lt;/p&gt;
-&lt;p&gt;Hint: note which variables are mapped to which axis, and refer to the &lt;code&gt;ggplot()&lt;/code&gt; syntax template to structure your code.&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1hlUVdGwc71yqZG6ESZGWaVAiCwGQA6W2" width="943" /&gt;&lt;/p&gt;
-&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+&lt;div id="basic-scatter-plot" class="section level2"&gt;
+&lt;h2&gt;Basic scatter plot&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Complete the code below to create a simple scatter plot of HIV cases over time using &lt;code&gt;ggplot()&lt;/code&gt;.&lt;/strong&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = {hiv_prevalence}, 
        mapping = aes(x = {year},
-                       y = {total_cases})) +
-  geom_point()&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;This scatter plot doesn’t allow us to distinguish between the 3 countries in the dataset.&lt;/p&gt;
+                     y = {total_cases})) +
+  {geom_point()}&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;When you run the completed code in R, the resulting plot should look like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1RyIjwtdGPAwAhQHI9DmQtjXkY4hzDkiW" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Hint&lt;/strong&gt;: Refer to the &lt;code&gt;ggplot()&lt;/code&gt; code template.&lt;/p&gt;
+&lt;p&gt;&lt;img src="images/gg_min_build3-01.png" width="577" /&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="scatterplot-with-color" class="section level2"&gt;
+&lt;h2&gt;Scatterplot with color&lt;/h2&gt;
+&lt;p&gt;The points in this scatter plot are all the same, so it doesn’t allow us to visually see which country each data point is from.&lt;/p&gt;
+&lt;p&gt;We can modify the code from the basic scatter plot to create a plot like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1f83RQsnVU_wQQ5rOUg2jD-euA3j6ZClC" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Add an aesthetic argument that will color each point according to country.&lt;/strong&gt;&lt;/p&gt;
-&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = {hiv_prevalence}, 
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
        {mapping} = aes(x = year,
                        y = total_cases,
                        {[color=country][colour=country][col=country]|2})) +
-  geom_point()&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;The aesthetic argument we just added is a fixed aesthetic: {[false][f]} (&lt;strong&gt;&lt;code&gt;true&lt;/code&gt;&lt;/strong&gt; or &lt;strong&gt;&lt;code&gt;false&lt;/code&gt;&lt;/strong&gt;)&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Use the &lt;code&gt;high_prevalence&lt;/code&gt;&lt;/strong&gt; &lt;strong&gt;dataset in R to create a stacked bar plot of total cases per year.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Hint: you will need to use the &lt;strong&gt;&lt;code&gt;geom_col()&lt;/code&gt;&lt;/strong&gt; function.&lt;/p&gt;
-&lt;p&gt;The plot should look like this:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1WHlflCdPibZdLTlAUNZrbu-ERBnHbIYh" width="672" /&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Complete the below code to create a colored line graph&lt;/strong&gt; &lt;strong&gt;showing a separate line for each country.&lt;/strong&gt;&lt;/p&gt;
-&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
-             mapping = aes(x = year, 
+  {geom_point()}&lt;/code&gt;&lt;/pre&gt;
+&lt;/div&gt;
+&lt;div id="fixed-vs.-mapped-aesthetics" class="section level2"&gt;
+&lt;h2&gt;Fixed vs. mapped aesthetics&lt;/h2&gt;
+&lt;p&gt;The aesthetic argument you added to color the points by &lt;code&gt;country&lt;/code&gt; is a &lt;strong&gt;fixed aesthetic&lt;/strong&gt;, not an &lt;strong&gt;mapping&lt;/strong&gt;: {[false][f]}
+(Enter “true” or “false”)&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="line-graph-with-color" class="section level2"&gt;
+&lt;h2&gt;Line graph with color&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Complete the below code to create a line graph with a different color for each country.&lt;/strong&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot({data} = hiv_prevalence, 
+             mapping = {aes}(x = year, 
                            y = total_cases,
                            {[color][col][colour]} = country)) {+} 
       {geom_line()}&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;The plot that should be created from the code above will look like this:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1CQerfAZKFyNpMKvv1rOivXJg0da8fw81" width="672" /&gt;&lt;/p&gt;
-&lt;p&gt;Let’s say I want the lines in the plot to be a little thicker.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Name an aesthetic argument you can use to change the width of lines in a line graph&lt;/strong&gt;. {[size][lwd][linewidth]}&lt;/p&gt;
-&lt;p&gt;I wrote the following code to change the width of all lines in this plot to 1 mm:&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Which of the plots below (from a to f) most closely resembles your output plot? Letter: {a}&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1XSNAP8mOsfqj4oeDnB8oVbCs2r8EGolo" width="672" /&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="modify-line-width" class="section level2"&gt;
+&lt;h2&gt;Modify line width&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Name an aesthetic argument you can use to change the width of lines in a line graph&lt;/strong&gt;: {[size][lwd][linewidth]}&lt;/p&gt;
+&lt;p&gt;Let’s say I want the lines in the plot to be a little thicker, like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=14XmuRhwyLlftCulw3ZvzG7eDDxopnOO9" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;So I tried to change the width of all lines in this plot to 1 mm with this code:&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
              mapping = aes(x = year, 
                            y = total_cases,
                            color = country,
-                           size = 1)) + 
+                           linewidth = 1)) + 
       geom_line()&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1KO2fZ8hQpqKdKpRDFR_phtaoHvKYKvB2" width="480" /&gt;&lt;/p&gt;
-&lt;p&gt;Uh oh! That doesn’t look right. Can you find and fix the mistake in my code?&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;Hint: Aesthetic arguments like &lt;code&gt;x&lt;/code&gt;, &lt;code&gt;y&lt;/code&gt;, &lt;code&gt;color&lt;/code&gt;, &lt;code&gt;fill&lt;/code&gt;, and &lt;code&gt;size&lt;/code&gt; can either be a mapping of a variable or a fixed value. This depends on whether they are written inside &lt;code&gt;mapping = aes()&lt;/code&gt; or inside a &lt;code&gt;geom_*()&lt;/code&gt; function.&lt;/em&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Use the &lt;code&gt;hiv_prevalence&lt;/code&gt; dataframe in R to create the line graph of population vs. year where the width of all lines is 1 mm.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;The plot should look like this:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1z1fIh0CLJKRUfUxKHlnfmwseRlFbvjjG" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1pOidxuOI-a5AWHoDRiX__I6LB-SnKazm" width="480" /&gt;&lt;/p&gt;
+&lt;p&gt;Uh oh! The plot doesn’t look right. Can you find the mistake in my code?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Enter “true” or “false” for each statement:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;The geometry function used is correct. {[true][t]}&lt;/p&gt;
+&lt;p&gt;The x &amp;amp; y axis mappings should be outside &lt;code&gt;aes()&lt;/code&gt;. {[false][f]}&lt;/p&gt;
+&lt;p&gt;The size or line width should be assigned in &lt;code&gt;geom_line()&lt;/code&gt;. {[true][t]}&lt;/p&gt;
+&lt;p&gt;The color should be assigned in &lt;code&gt;geom_line()&lt;/code&gt;. {[false][f]}&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Hint&lt;/strong&gt;: Aesthetic arguments like &lt;code&gt;x&lt;/code&gt;, &lt;code&gt;y&lt;/code&gt;, &lt;code&gt;color&lt;/code&gt;, &lt;code&gt;fill&lt;/code&gt;, and &lt;code&gt;size&lt;/code&gt; can either be a mapping of a variable or a fixed value. This depends on whether they are written inside &lt;code&gt;mapping = aes()&lt;/code&gt; or inside a &lt;code&gt;geom_()&lt;/code&gt; function.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="color-vs.-fill" class="section level2"&gt;
+&lt;h2&gt;Color vs. Fill&lt;/h2&gt;
+&lt;div id="plot-1-boxplot" class="section level3"&gt;
+&lt;h3&gt;Plot 1: Boxplot&lt;/h3&gt;
 &lt;p&gt;Here are two plots showing the distribution of &lt;code&gt;total_cases&lt;/code&gt; for each country.&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1XnKjPggFYL1bQPXryOlQurwixzw7rjx6" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1TIiE53VM_UOL1S3ny3JQxSlYm4rLO8gt" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Identify which plot is using the &lt;code&gt;color&lt;/code&gt; aesthetic for the &lt;code&gt;country&lt;/code&gt; variable.&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;Answer with &lt;code&gt;A&lt;/code&gt; or &lt;code&gt;B&lt;/code&gt;: Plot {B}&lt;/p&gt;
-&lt;p&gt;Now let’s create a bar plot where the outline color and fill color are different. For example, the bars in this bar plot of cases per year have colorful segments and a black outline:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1ERiyguvBr0egnpUMw0j3y_3l2d9Wr3nX" width="672" /&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="plot-2-bar-plot" class="section level3"&gt;
+&lt;h3&gt;Plot 2: Bar plot&lt;/h3&gt;
+&lt;p&gt;Now let’s create a stacked bar plot where the outline color and inside color are different. For example, the bars in this bar plot of cases per year have colorful segments and a black outline:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=165OmafBZEW3N9cdYQpJh7MhHbeK1P2Ev" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Complete the code below to generate this plot.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Hint: The R color used to color points in this plot is “black”.&lt;/p&gt;
-&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
-       mapping = aes(x = year,
-                     y = total_cases,
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+       mapping = {aes}(x = year,
+                     y = {population},
                      {fill} = {country})) +
-  geom_point({[color][col][colour]} = {[&amp;quot;black&amp;quot;][&amp;quot;#000000&amp;quot;]})&lt;/code&gt;&lt;/pre&gt;
+  geom_col({[color][col][colour]} = {[&amp;quot;black&amp;quot;][&amp;quot;#000000&amp;quot;]})&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;strong&gt;Hint&lt;/strong&gt;: The R color used to color bar outlines in this plot is “black”.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="plot-3" class="section level3"&gt;
+&lt;h3&gt;Plot 3:&lt;/h3&gt;
 &lt;p&gt;Here are two plots showing the change in population over time for each country:&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1NnmzvzeyE5VDQrAKXm_EgZF3mUeWAKyp" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1dMOMDv2Bp3-T8rJwmrZSot6hXRsK4cAx" width="672" /&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;Complete the code below to create Plot B&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Note: The R color used to color points in Plot B is called “lightgray”.&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
              mapping = aes(x = year, 
                            {[y = population][population]|2})) {+} 
-      {geom_line({[color = point_color][colour = point_color][col = point_color]|2})}&lt;/code&gt;&lt;/pre&gt;
+      geom_line({[color = &amp;quot;seagreen&amp;quot;][colour = &amp;quot;seagreen&amp;quot;][col = &amp;quot;seagreen&amp;quot;]})&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;strong&gt;Hint&lt;/strong&gt;: The R color used to color bar outlines in this plot is “seagreen”.&lt;/p&gt;
 &lt;hr /&gt;
-&lt;p&gt;&lt;strong&gt;Next, create a ggplot2 line graph of population over time. Then indicate which of the plots below (from a to f) most closely resembles your output plot. Letter answer: {a}&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1kiES3x--v6nTT5_mQ3exxxcUneGKnmLh" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;**Make sure to review all your answers before checking the quiz. You cannot submit unless all blanks are filled in.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls01_gg_intro_data_quiz_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;p&gt;Welcome to your first data-based quiz on data visualization! For data-based quizzes, you will need to import data into R as you follow the questions. Here, you will analyze HIV cases from around the world.&lt;/p&gt;
+&lt;div id="hiv-dataset" class="section level1"&gt;
+&lt;h1&gt;HIV dataset&lt;/h1&gt;
+&lt;p&gt;Click &lt;a href="https://drive.google.com/file/d/1qd5tTJE4aithaAqeHcSJ2c0JTy6-a4_m/view?usp=drivesdk" target="_blank"&gt;&lt;strong&gt;here&lt;/strong&gt;&lt;/a&gt; to view and download the data. Or import it directly into R with the code below:&lt;/p&gt;
+&lt;pre&gt;&lt;code&gt;if(!require(pacman)) install.packages(&amp;quot;pacman&amp;quot;)   
+pacman::p_load(rio)   
+hiv_prevalence &amp;lt;- import(&amp;quot;https://docs.google.com/uc?id=1qd5tTJE4aithaAqeHcSJ2c0JTy6-a4_m&amp;amp;export=download&amp;quot;,
+ format = &amp;quot;csv&amp;quot;,
+ setclass = &amp;quot;tibble&amp;quot;)  &lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;Note that each time you retry a quiz, the dataset is slightly modified so that you get a different set of countries. If you are retaking this quiz, please ensure that download the new data again.&lt;/p&gt;
+&lt;p&gt;Let’s look at the top 6 rows of &lt;strong&gt;&lt;code&gt;hiv_prevalence&lt;/code&gt;&lt;/strong&gt; after import:&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;head(hiv_prevalence)&lt;/code&gt;&lt;/pre&gt;
+&lt;pre&gt;&lt;code&gt;## # A tibble: 6 x 4
+##   country   year total_cases population
+##   &amp;lt;fct&amp;gt;    &amp;lt;dbl&amp;gt;       &amp;lt;dbl&amp;gt;      &amp;lt;dbl&amp;gt;
+## 1 Ethiopia  1995      910000   57023519
+## 2 Ethiopia  1996     1000000   58815116
+## 3 Ethiopia  1997     1100000   60584273
+## 4 Ethiopia  1998     1200000   62353942
+## 5 Ethiopia  1999     1200000   64158887
+## 6 Ethiopia  2000     1300000   66024199&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;There are four variables:&lt;/p&gt;
+&lt;p&gt;1. &lt;strong&gt;&lt;code&gt;country&lt;/code&gt;&lt;/strong&gt; : Country name&lt;/p&gt;
+&lt;p&gt;2. &lt;strong&gt;&lt;code&gt;year&lt;/code&gt;&lt;/strong&gt; : Calendar year&lt;/p&gt;
+&lt;p&gt;3. &lt;strong&gt;&lt;code&gt;total_cases&lt;/code&gt;&lt;/strong&gt;: Number of people estimated to be infected by HIV.&lt;/p&gt;
+&lt;p&gt;4. &lt;strong&gt;&lt;code&gt;population&lt;/code&gt;&lt;/strong&gt;: Total population&lt;/p&gt;
+&lt;p&gt;Take a closer look at the composition of each variable:&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;summary(hiv_prevalence)&lt;/code&gt;&lt;/pre&gt;
+&lt;pre&gt;&lt;code&gt;##      country        year       total_cases     
+##  Ethiopia:15   Min.   :1995   Min.   : 610000  
+##  India   :15   1st Qu.:1998   1st Qu.: 920000  
+##  Malawi  :15   Median :2002   Median :1100000  
+##                Mean   :2002   Mean   :1408889  
+##                3rd Qu.:2006   3rd Qu.:2000000  
+##                Max.   :2009   Max.   :2600000  
+##    population       
+##  Min.   :9.964e+06  
+##  1st Qu.:1.331e+07  
+##  Median :6.995e+07  
+##  Mean   :3.859e+08  
+##  3rd Qu.:1.008e+09  
+##  Max.   :1.190e+09&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;The countries in your dataset are: Ethiopia, India, Malawi.&lt;/p&gt;
+&lt;p&gt;In this quiz you will create plots to look at how the number of total HIV cases in these countries changes over this time period.&lt;/p&gt;
+&lt;div id="basic-scatter-plot" class="section level2"&gt;
+&lt;h2&gt;Basic scatter plot&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Complete the code below to create a simple scatter plot of HIV cases over time using &lt;code&gt;ggplot()&lt;/code&gt;.&lt;/strong&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = {hiv_prevalence}, 
+       mapping = aes(x = {year},
+                     y = {total_cases})) +
+  {geom_point()}&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;When you run the completed code in R, the resulting plot should look like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1zf0VXqmlRR-xcZTQXz4ENBNAhs7AulNp" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Hint&lt;/strong&gt;: Refer to the &lt;code&gt;ggplot()&lt;/code&gt; code template.&lt;/p&gt;
+&lt;p&gt;&lt;img src="images/gg_min_build3-01.png" width="577" /&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="scatterplot-with-color" class="section level2"&gt;
+&lt;h2&gt;Scatterplot with color&lt;/h2&gt;
+&lt;p&gt;The points in this scatter plot are all the same, so it doesn’t allow us to visually see which country each data point is from.&lt;/p&gt;
+&lt;p&gt;We can modify the code from the basic scatter plot to create a plot like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1x9wdBppFpVtHHbxTgW5YUGJ2tMRRAEeU" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Add an aesthetic argument that will color each point according to country.&lt;/strong&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+       {mapping} = aes(x = year,
+                       y = total_cases,
+                       {[color=country][colour=country][col=country]|2})) +
+  {geom_point()}&lt;/code&gt;&lt;/pre&gt;
+&lt;/div&gt;
+&lt;div id="fixed-vs.-mapped-aesthetics" class="section level2"&gt;
+&lt;h2&gt;Fixed vs. mapped aesthetics&lt;/h2&gt;
+&lt;p&gt;The aesthetic argument you added to color the points by &lt;code&gt;country&lt;/code&gt; is a &lt;strong&gt;fixed aesthetic&lt;/strong&gt;, not an &lt;strong&gt;mapping&lt;/strong&gt;: {[false][f]}
+(Enter “true” or “false”)&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="line-graph-with-color" class="section level2"&gt;
+&lt;h2&gt;Line graph with color&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Complete the below code to create a line graph with a different color for each country.&lt;/strong&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot({data} = hiv_prevalence, 
+             mapping = {aes}(x = year, 
+                           y = total_cases,
+                           {[color][col][colour]} = country)) {+} 
+      {geom_line()}&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;strong&gt;Which of the plots below (from a to f) most closely resembles your output plot? Letter: {b}&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1mcka48XTh7IQBwZX2i2G6ykDahUVMXXt" width="672" /&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="modify-line-width" class="section level2"&gt;
+&lt;h2&gt;Modify line width&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Name an aesthetic argument you can use to change the width of lines in a line graph&lt;/strong&gt;: {[size][lwd][linewidth]}&lt;/p&gt;
+&lt;p&gt;Let’s say I want the lines in the plot to be a little thicker, like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1SsZq4dPYI4uY7dZZa6SqnXNzVcnAFukb" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;So I tried to change the width of all lines in this plot to 1 mm with this code:&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+             mapping = aes(x = year, 
+                           y = total_cases,
+                           color = country,
+                           linewidth = 1)) + 
+      geom_line()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1FA12FUkYGbTgomtWKmjfBUHwSJACijRp" width="480" /&gt;&lt;/p&gt;
+&lt;p&gt;Uh oh! The plot doesn’t look right. Can you find the mistake in my code?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Enter “true” or “false” for each statement:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;The geometry function used is correct. {[true][t]}&lt;/p&gt;
+&lt;p&gt;The x &amp;amp; y axis mappings should be outside &lt;code&gt;aes()&lt;/code&gt;. {[false][f]}&lt;/p&gt;
+&lt;p&gt;The size or line width should be assigned in &lt;code&gt;geom_line()&lt;/code&gt;. {[true][t]}&lt;/p&gt;
+&lt;p&gt;The color should be assigned in &lt;code&gt;geom_line()&lt;/code&gt;. {[false][f]}&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Hint&lt;/strong&gt;: Aesthetic arguments like &lt;code&gt;x&lt;/code&gt;, &lt;code&gt;y&lt;/code&gt;, &lt;code&gt;color&lt;/code&gt;, &lt;code&gt;fill&lt;/code&gt;, and &lt;code&gt;size&lt;/code&gt; can either be a mapping of a variable or a fixed value. This depends on whether they are written inside &lt;code&gt;mapping = aes()&lt;/code&gt; or inside a &lt;code&gt;geom_()&lt;/code&gt; function.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="color-vs.-fill" class="section level2"&gt;
+&lt;h2&gt;Color vs. Fill&lt;/h2&gt;
+&lt;div id="plot-1-boxplot" class="section level3"&gt;
+&lt;h3&gt;Plot 1: Boxplot&lt;/h3&gt;
+&lt;p&gt;Here are two plots showing the distribution of &lt;code&gt;total_cases&lt;/code&gt; for each country.&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1qCw8-Uew8ED7QTe4A2afLa8XlMAVb4nL" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Identify which plot is using the &lt;code&gt;color&lt;/code&gt; aesthetic for the &lt;code&gt;country&lt;/code&gt; variable.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Answer with &lt;code&gt;A&lt;/code&gt; or &lt;code&gt;B&lt;/code&gt;: Plot {B}&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="plot-2-bar-plot" class="section level3"&gt;
+&lt;h3&gt;Plot 2: Bar plot&lt;/h3&gt;
+&lt;p&gt;Now let’s create a stacked bar plot where the outline color and inside color are different. For example, the bars in this bar plot of cases per year have colorful segments and a black outline:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1Ne2H-bwy_-OQOxBGuUJcnxIB0f7ZsdM5" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Complete the code below to generate this plot.&lt;/strong&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+       mapping = {aes}(x = year,
+                     y = {population},
+                     {fill} = {country})) +
+  geom_col({[color][col][colour]} = {[&amp;quot;black&amp;quot;][&amp;quot;#000000&amp;quot;]})&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;strong&gt;Hint&lt;/strong&gt;: The R color used to color bar outlines in this plot is “black”.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="plot-3" class="section level3"&gt;
+&lt;h3&gt;Plot 3:&lt;/h3&gt;
+&lt;p&gt;Here are two plots showing the change in population over time for each country:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1IXJDiGMF9RHpDFdo0WI5vHfTgP-Yc1R2" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Complete the code below to create Plot B&lt;/strong&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+             mapping = aes(x = year, 
+                           {[y = population][population]|2})) {+} 
+      geom_line({[color = &amp;quot;seagreen&amp;quot;][colour = &amp;quot;seagreen&amp;quot;][col = &amp;quot;seagreen&amp;quot;]})&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;strong&gt;Hint&lt;/strong&gt;: The R color used to color bar outlines in this plot is “seagreen”.&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;**Make sure to review all your answers before checking the quiz. You cannot submit unless all blanks are filled in.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls01_gg_intro_data_quiz_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;p&gt;Welcome to your first data-based quiz on data visualization! For data-based quizzes, you will need to import data into R as you follow the questions. Here, you will analyze HIV cases from around the world.&lt;/p&gt;
+&lt;div id="hiv-dataset" class="section level1"&gt;
+&lt;h1&gt;HIV dataset&lt;/h1&gt;
+&lt;p&gt;Click &lt;a href="https://drive.google.com/file/d/140ZLUO-wGAyrjKejLeTCD6C2LgwRM1i-/view?usp=drivesdk" target="_blank"&gt;&lt;strong&gt;here&lt;/strong&gt;&lt;/a&gt; to view and download the data. Or import it directly into R with the code below:&lt;/p&gt;
+&lt;pre&gt;&lt;code&gt;if(!require(pacman)) install.packages(&amp;quot;pacman&amp;quot;)   
+pacman::p_load(rio)   
+hiv_prevalence &amp;lt;- import(&amp;quot;https://docs.google.com/uc?id=140ZLUO-wGAyrjKejLeTCD6C2LgwRM1i-&amp;amp;export=download&amp;quot;,
+ format = &amp;quot;csv&amp;quot;,
+ setclass = &amp;quot;tibble&amp;quot;)  &lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;Note that each time you retry a quiz, the dataset is slightly modified so that you get a different set of countries. If you are retaking this quiz, please ensure that download the new data again.&lt;/p&gt;
+&lt;p&gt;Let’s look at the top 6 rows of &lt;strong&gt;&lt;code&gt;hiv_prevalence&lt;/code&gt;&lt;/strong&gt; after import:&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;head(hiv_prevalence)&lt;/code&gt;&lt;/pre&gt;
+&lt;pre&gt;&lt;code&gt;## # A tibble: 6 x 4
+##   country        year total_cases population
+##   &amp;lt;fct&amp;gt;         &amp;lt;dbl&amp;gt;       &amp;lt;dbl&amp;gt;      &amp;lt;dbl&amp;gt;
+## 1 Cote d&amp;#39;Ivoire  1995      540000   14217430
+## 2 Cote d&amp;#39;Ivoire  1996      570000   14632391
+## 3 Cote d&amp;#39;Ivoire  1997      580000   15042149
+## 4 Cote d&amp;#39;Ivoire  1998      590000   15436470
+## 5 Cote d&amp;#39;Ivoire  1999      590000   15802248
+## 6 Cote d&amp;#39;Ivoire  2000      580000   16131332&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;There are four variables:&lt;/p&gt;
+&lt;p&gt;1. &lt;strong&gt;&lt;code&gt;country&lt;/code&gt;&lt;/strong&gt; : Country name&lt;/p&gt;
+&lt;p&gt;2. &lt;strong&gt;&lt;code&gt;year&lt;/code&gt;&lt;/strong&gt; : Calendar year&lt;/p&gt;
+&lt;p&gt;3. &lt;strong&gt;&lt;code&gt;total_cases&lt;/code&gt;&lt;/strong&gt;: Number of people estimated to be infected by HIV.&lt;/p&gt;
+&lt;p&gt;4. &lt;strong&gt;&lt;code&gt;population&lt;/code&gt;&lt;/strong&gt;: Total population&lt;/p&gt;
+&lt;p&gt;Take a closer look at the composition of each variable:&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;summary(hiv_prevalence)&lt;/code&gt;&lt;/pre&gt;
+&lt;pre&gt;&lt;code&gt;##           country        year       total_cases     
+##  Cote d&amp;#39;Ivoire:15   Min.   :1995   Min.   : 340000  
+##  Mozambique   :15   1st Qu.:1998   1st Qu.: 540000  
+##  United States:15   Median :2002   Median : 840000  
+##                     Mean   :2002   Mean   : 811778  
+##                     3rd Qu.:2006   3rd Qu.:1100000  
+##                     Max.   :2009   Max.   :1300000  
+##    population       
+##  Min.   : 14217430  
+##  1st Qu.: 16914628  
+##  Median : 19319894  
+##  Mean   :108523005  
+##  3rd Qu.:278053607  
+##  Max.   :309491893&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;The countries in your dataset are: Cote d’Ivoire, Mozambique, United States.&lt;/p&gt;
+&lt;p&gt;In this quiz you will create plots to look at how the number of total HIV cases in these countries changes over this time period.&lt;/p&gt;
+&lt;div id="basic-scatter-plot" class="section level2"&gt;
+&lt;h2&gt;Basic scatter plot&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Complete the code below to create a simple scatter plot of HIV cases over time using &lt;code&gt;ggplot()&lt;/code&gt;.&lt;/strong&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = {hiv_prevalence}, 
+       mapping = aes(x = {year},
+                     y = {total_cases})) +
+  {geom_point()}&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;When you run the completed code in R, the resulting plot should look like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1oS56ZM2k2iDoJq_yjnitDA_QuZ22k_Qb" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Hint&lt;/strong&gt;: Refer to the &lt;code&gt;ggplot()&lt;/code&gt; code template.&lt;/p&gt;
+&lt;p&gt;&lt;img src="images/gg_min_build3-01.png" width="577" /&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="scatterplot-with-color" class="section level2"&gt;
+&lt;h2&gt;Scatterplot with color&lt;/h2&gt;
+&lt;p&gt;The points in this scatter plot are all the same, so it doesn’t allow us to visually see which country each data point is from.&lt;/p&gt;
+&lt;p&gt;We can modify the code from the basic scatter plot to create a plot like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1g0jIxjlY3KMTTdp4DKIGNquKoIxAZzlb" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Add an aesthetic argument that will color each point according to country.&lt;/strong&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+       {mapping} = aes(x = year,
+                       y = total_cases,
+                       {[color=country][colour=country][col=country]|2})) +
+  {geom_point()}&lt;/code&gt;&lt;/pre&gt;
+&lt;/div&gt;
+&lt;div id="fixed-vs.-mapped-aesthetics" class="section level2"&gt;
+&lt;h2&gt;Fixed vs. mapped aesthetics&lt;/h2&gt;
+&lt;p&gt;The aesthetic argument you added to color the points by &lt;code&gt;country&lt;/code&gt; is a &lt;strong&gt;fixed aesthetic&lt;/strong&gt;, not an &lt;strong&gt;mapping&lt;/strong&gt;: {[false][f]}
+(Enter “true” or “false”)&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="line-graph-with-color" class="section level2"&gt;
+&lt;h2&gt;Line graph with color&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Complete the below code to create a line graph with a different color for each country.&lt;/strong&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot({data} = hiv_prevalence, 
+             mapping = {aes}(x = year, 
+                           y = total_cases,
+                           {[color][col][colour]} = country)) {+} 
+      {geom_line()}&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;strong&gt;Which of the plots below (from a to f) most closely resembles your output plot? Letter: {b}&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1U01sn6qany_i3GhlhPtz-FC0tsWAiY_u" width="672" /&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="modify-line-width" class="section level2"&gt;
+&lt;h2&gt;Modify line width&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Name an aesthetic argument you can use to change the width of lines in a line graph&lt;/strong&gt;: {[size][lwd][linewidth]}&lt;/p&gt;
+&lt;p&gt;Let’s say I want the lines in the plot to be a little thicker, like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1BnqRhe3tGRGIa5Rv5-xgPH8HCeSgRXcA" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;So I tried to change the width of all lines in this plot to 1 mm with this code:&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+             mapping = aes(x = year, 
+                           y = total_cases,
+                           color = country,
+                           linewidth = 1)) + 
+      geom_line()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1ewK9xr7sNS9TlmM-luqDFdD4bHUQ8KVZ" width="480" /&gt;&lt;/p&gt;
+&lt;p&gt;Uh oh! The plot doesn’t look right. Can you find the mistake in my code?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Enter “true” or “false” for each statement:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;The geometry function used is correct. {[true][t]}&lt;/p&gt;
+&lt;p&gt;The x &amp;amp; y axis mappings should be outside &lt;code&gt;aes()&lt;/code&gt;. {[false][f]}&lt;/p&gt;
+&lt;p&gt;The size or line width should be assigned in &lt;code&gt;geom_line()&lt;/code&gt;. {[true][t]}&lt;/p&gt;
+&lt;p&gt;The color should be assigned in &lt;code&gt;geom_line()&lt;/code&gt;. {[false][f]}&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Hint&lt;/strong&gt;: Aesthetic arguments like &lt;code&gt;x&lt;/code&gt;, &lt;code&gt;y&lt;/code&gt;, &lt;code&gt;color&lt;/code&gt;, &lt;code&gt;fill&lt;/code&gt;, and &lt;code&gt;size&lt;/code&gt; can either be a mapping of a variable or a fixed value. This depends on whether they are written inside &lt;code&gt;mapping = aes()&lt;/code&gt; or inside a &lt;code&gt;geom_()&lt;/code&gt; function.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="color-vs.-fill" class="section level2"&gt;
+&lt;h2&gt;Color vs. Fill&lt;/h2&gt;
+&lt;div id="plot-1-boxplot" class="section level3"&gt;
+&lt;h3&gt;Plot 1: Boxplot&lt;/h3&gt;
+&lt;p&gt;Here are two plots showing the distribution of &lt;code&gt;total_cases&lt;/code&gt; for each country.&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1eJAl4XQ31xWWCqrXVSgbt5K4pGSZYFay" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Identify which plot is using the &lt;code&gt;color&lt;/code&gt; aesthetic for the &lt;code&gt;country&lt;/code&gt; variable.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Answer with &lt;code&gt;A&lt;/code&gt; or &lt;code&gt;B&lt;/code&gt;: Plot {B}&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="plot-2-bar-plot" class="section level3"&gt;
+&lt;h3&gt;Plot 2: Bar plot&lt;/h3&gt;
+&lt;p&gt;Now let’s create a stacked bar plot where the outline color and inside color are different. For example, the bars in this bar plot of cases per year have colorful segments and a black outline:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=11B3vUgH0IkNpHK-3Wbp3-Ro2P4y-1MAu" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Complete the code below to generate this plot.&lt;/strong&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+       mapping = {aes}(x = year,
+                     y = {population},
+                     {fill} = {country})) +
+  geom_col({[color][col][colour]} = {[&amp;quot;black&amp;quot;][&amp;quot;#000000&amp;quot;]})&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;strong&gt;Hint&lt;/strong&gt;: The R color used to color bar outlines in this plot is “black”.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="plot-3" class="section level3"&gt;
+&lt;h3&gt;Plot 3:&lt;/h3&gt;
+&lt;p&gt;Here are two plots showing the change in population over time for each country:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1HXd7Tc9qrUlOj53e2joneM0xWfsRaXJA" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Complete the code below to create Plot B&lt;/strong&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+             mapping = aes(x = year, 
+                           {[y = population][population]|2})) {+} 
+      geom_line({[color = &amp;quot;seagreen&amp;quot;][colour = &amp;quot;seagreen&amp;quot;][col = &amp;quot;seagreen&amp;quot;]})&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;strong&gt;Hint&lt;/strong&gt;: The R color used to color bar outlines in this plot is “seagreen”.&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;**Make sure to review all your answers before checking the quiz. You cannot submit unless all blanks are filled in.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls01_gg_intro_data_quiz_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;p&gt;Welcome to your first data-based quiz on data visualization! For data-based quizzes, you will need to import data into R as you follow the questions. Here, you will analyze HIV cases from around the world.&lt;/p&gt;
+&lt;div id="hiv-dataset" class="section level1"&gt;
+&lt;h1&gt;HIV dataset&lt;/h1&gt;
+&lt;p&gt;Click &lt;a href="https://drive.google.com/file/d/1eOtlMF2MiKTxU_-JrMSm7yEcYCPoktQt/view?usp=drivesdk" target="_blank"&gt;&lt;strong&gt;here&lt;/strong&gt;&lt;/a&gt; to view and download the data. Or import it directly into R with the code below:&lt;/p&gt;
+&lt;pre&gt;&lt;code&gt;if(!require(pacman)) install.packages(&amp;quot;pacman&amp;quot;)   
+pacman::p_load(rio)   
+hiv_prevalence &amp;lt;- import(&amp;quot;https://docs.google.com/uc?id=1eOtlMF2MiKTxU_-JrMSm7yEcYCPoktQt&amp;amp;export=download&amp;quot;,
+ format = &amp;quot;csv&amp;quot;,
+ setclass = &amp;quot;tibble&amp;quot;)  &lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;Note that each time you retry a quiz, the dataset is slightly modified so that you get a different set of countries. If you are retaking this quiz, please ensure that download the new data again.&lt;/p&gt;
+&lt;p&gt;Let’s look at the top 6 rows of &lt;strong&gt;&lt;code&gt;hiv_prevalence&lt;/code&gt;&lt;/strong&gt; after import:&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;head(hiv_prevalence)&lt;/code&gt;&lt;/pre&gt;
+&lt;pre&gt;&lt;code&gt;## # A tibble: 6 x 4
+##   country   year total_cases population
+##   &amp;lt;fct&amp;gt;    &amp;lt;dbl&amp;gt;       &amp;lt;dbl&amp;gt;      &amp;lt;dbl&amp;gt;
+## 1 Botswana  1995      160000    1583453
+## 2 Botswana  1996      180000    1620989
+## 3 Botswana  1997      210000    1657349
+## 4 Botswana  1998      230000    1692148
+## 5 Botswana  1999      250000    1724924
+## 6 Botswana  2000      260000    1755375&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;There are four variables:&lt;/p&gt;
+&lt;p&gt;1. &lt;strong&gt;&lt;code&gt;country&lt;/code&gt;&lt;/strong&gt; : Country name&lt;/p&gt;
+&lt;p&gt;2. &lt;strong&gt;&lt;code&gt;year&lt;/code&gt;&lt;/strong&gt; : Calendar year&lt;/p&gt;
+&lt;p&gt;3. &lt;strong&gt;&lt;code&gt;total_cases&lt;/code&gt;&lt;/strong&gt;: Number of people estimated to be infected by HIV.&lt;/p&gt;
+&lt;p&gt;4. &lt;strong&gt;&lt;code&gt;population&lt;/code&gt;&lt;/strong&gt;: Total population&lt;/p&gt;
+&lt;p&gt;Take a closer look at the composition of each variable:&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;summary(hiv_prevalence)&lt;/code&gt;&lt;/pre&gt;
+&lt;pre&gt;&lt;code&gt;##        country        year       total_cases     
+##  Botswana  :15   Min.   :1995   Min.   : 160000  
+##  Mozambique:15   1st Qu.:1998   1st Qu.: 280000  
+##  Thailand  :15   Median :2002   Median : 560000  
+##                  Mean   :2002   Mean   : 585111  
+##                  3rd Qu.:2006   3rd Qu.: 710000  
+##                  Max.   :2009   Max.   :1300000  
+##    population      
+##  Min.   : 1583453  
+##  1st Qu.: 1895944  
+##  Median :19319894  
+##  Mean   :28200649  
+##  3rd Qu.:60903042  
+##  Max.   :66277335&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;The countries in your dataset are: Botswana, Mozambique, Thailand.&lt;/p&gt;
+&lt;p&gt;In this quiz you will create plots to look at how the number of total HIV cases in these countries changes over this time period.&lt;/p&gt;
+&lt;div id="basic-scatter-plot" class="section level2"&gt;
+&lt;h2&gt;Basic scatter plot&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Complete the code below to create a simple scatter plot of HIV cases over time using &lt;code&gt;ggplot()&lt;/code&gt;.&lt;/strong&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = {hiv_prevalence}, 
+       mapping = aes(x = {year},
+                     y = {total_cases})) +
+  {geom_point()}&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;When you run the completed code in R, the resulting plot should look like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1qzmMz5DLOMk-2op1B6ObHe4D8lS8HyJj" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Hint&lt;/strong&gt;: Refer to the &lt;code&gt;ggplot()&lt;/code&gt; code template.&lt;/p&gt;
+&lt;p&gt;&lt;img src="images/gg_min_build3-01.png" width="577" /&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="scatterplot-with-color" class="section level2"&gt;
+&lt;h2&gt;Scatterplot with color&lt;/h2&gt;
+&lt;p&gt;The points in this scatter plot are all the same, so it doesn’t allow us to visually see which country each data point is from.&lt;/p&gt;
+&lt;p&gt;We can modify the code from the basic scatter plot to create a plot like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1_u-FgdlCExRTf6iQrj6WNA7-wp5lxAtl" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Add an aesthetic argument that will color each point according to country.&lt;/strong&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+       {mapping} = aes(x = year,
+                       y = total_cases,
+                       {[color=country][colour=country][col=country]|2})) +
+  {geom_point()}&lt;/code&gt;&lt;/pre&gt;
+&lt;/div&gt;
+&lt;div id="fixed-vs.-mapped-aesthetics" class="section level2"&gt;
+&lt;h2&gt;Fixed vs. mapped aesthetics&lt;/h2&gt;
+&lt;p&gt;The aesthetic argument you added to color the points by &lt;code&gt;country&lt;/code&gt; is a &lt;strong&gt;fixed aesthetic&lt;/strong&gt;, not an &lt;strong&gt;mapping&lt;/strong&gt;: {[false][f]}
+(Enter “true” or “false”)&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="line-graph-with-color" class="section level2"&gt;
+&lt;h2&gt;Line graph with color&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Complete the below code to create a line graph with a different color for each country.&lt;/strong&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot({data} = hiv_prevalence, 
+             mapping = {aes}(x = year, 
+                           y = total_cases,
+                           {[color][col][colour]} = country)) {+} 
+      {geom_line()}&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;strong&gt;Which of the plots below (from a to f) most closely resembles your output plot? Letter: {a}&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1iNkB6fSBvxJSgTmTUPJ-avzUJXTb2iNi" width="672" /&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="modify-line-width" class="section level2"&gt;
+&lt;h2&gt;Modify line width&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Name an aesthetic argument you can use to change the width of lines in a line graph&lt;/strong&gt;: {[size][lwd][linewidth]}&lt;/p&gt;
+&lt;p&gt;Let’s say I want the lines in the plot to be a little thicker, like this:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1zDGn0HBpSy8plmk-OtINlq2aDhZxCwhc" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;So I tried to change the width of all lines in this plot to 1 mm with this code:&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+             mapping = aes(x = year, 
+                           y = total_cases,
+                           color = country,
+                           linewidth = 1)) + 
+      geom_line()&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1iPcdBHZP235R0iJg8ki4EZG6jUxqpQB_" width="480" /&gt;&lt;/p&gt;
+&lt;p&gt;Uh oh! The plot doesn’t look right. Can you find the mistake in my code?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Enter “true” or “false” for each statement:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;The geometry function used is correct. {[true][t]}&lt;/p&gt;
+&lt;p&gt;The x &amp;amp; y axis mappings should be outside &lt;code&gt;aes()&lt;/code&gt;. {[false][f]}&lt;/p&gt;
+&lt;p&gt;The size or line width should be assigned in &lt;code&gt;geom_line()&lt;/code&gt;. {[true][t]}&lt;/p&gt;
+&lt;p&gt;The color should be assigned in &lt;code&gt;geom_line()&lt;/code&gt;. {[false][f]}&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Hint&lt;/strong&gt;: Aesthetic arguments like &lt;code&gt;x&lt;/code&gt;, &lt;code&gt;y&lt;/code&gt;, &lt;code&gt;color&lt;/code&gt;, &lt;code&gt;fill&lt;/code&gt;, and &lt;code&gt;size&lt;/code&gt; can either be a mapping of a variable or a fixed value. This depends on whether they are written inside &lt;code&gt;mapping = aes()&lt;/code&gt; or inside a &lt;code&gt;geom_()&lt;/code&gt; function.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="color-vs.-fill" class="section level2"&gt;
+&lt;h2&gt;Color vs. Fill&lt;/h2&gt;
+&lt;div id="plot-1-boxplot" class="section level3"&gt;
+&lt;h3&gt;Plot 1: Boxplot&lt;/h3&gt;
+&lt;p&gt;Here are two plots showing the distribution of &lt;code&gt;total_cases&lt;/code&gt; for each country.&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1mjTXlfC3r8jZCtGy--irYbv3xUPIou61" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Identify which plot is using the &lt;code&gt;color&lt;/code&gt; aesthetic for the &lt;code&gt;country&lt;/code&gt; variable.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Answer with &lt;code&gt;A&lt;/code&gt; or &lt;code&gt;B&lt;/code&gt;: Plot {B}&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="plot-2-bar-plot" class="section level3"&gt;
+&lt;h3&gt;Plot 2: Bar plot&lt;/h3&gt;
+&lt;p&gt;Now let’s create a stacked bar plot where the outline color and inside color are different. For example, the bars in this bar plot of cases per year have colorful segments and a black outline:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1Q0PcbbjRsnlnzC_989BUP3b_t0B62enX" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Complete the code below to generate this plot.&lt;/strong&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+       mapping = {aes}(x = year,
+                     y = {population},
+                     {fill} = {country})) +
+  geom_col({[color][col][colour]} = {[&amp;quot;black&amp;quot;][&amp;quot;#000000&amp;quot;]})&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;strong&gt;Hint&lt;/strong&gt;: The R color used to color bar outlines in this plot is “black”.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div id="plot-3" class="section level3"&gt;
+&lt;h3&gt;Plot 3:&lt;/h3&gt;
+&lt;p&gt;Here are two plots showing the change in population over time for each country:&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;id=1RtFrepDJqAlPsq1HSy-cqJDsqq8qNe3h" width="672" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Complete the code below to create Plot B&lt;/strong&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = hiv_prevalence, 
+             mapping = aes(x = year, 
+                           {[y = population][population]|2})) {+} 
+      geom_line({[color = &amp;quot;seagreen&amp;quot;][colour = &amp;quot;seagreen&amp;quot;][col = &amp;quot;seagreen&amp;quot;]})&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;strong&gt;Hint&lt;/strong&gt;: The R color used to color bar outlines in this plot is “seagreen”.&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;**Make sure to review all your answers before checking the quiz. You cannot submit unless all blanks are filled in.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
 &lt;/div&gt;</t>
   </si>
 </sst>
@@ -747,7 +1242,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
@@ -793,7 +1288,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
         <v>26</v>
@@ -824,6 +1319,144 @@
       <c r="U3"/>
       <c r="V3"/>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4" t="n">
+        <v>60</v>
+      </c>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5" t="n">
+        <v>60</v>
+      </c>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="n">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6" t="n">
+        <v>60</v>
+      </c>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
